--- a/outputs/ML_Results/dist_commute/Magdeburg.xlsx
+++ b/outputs/ML_Results/dist_commute/Magdeburg.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ40031053" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ40329361" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ40621792" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ40871029" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ41136319" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ41438727" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ41717010" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ42076757" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ42367286" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ24812729" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ25164278" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ25443093" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ25712460" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ25988158" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ26239703" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ26498173" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ26768534" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ27041379" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -501,7 +501,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -745,7 +745,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -989,7 +989,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1233,7 +1233,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1477,7 +1477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1721,7 +1721,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1965,7 +1965,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2209,7 +2209,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2453,7 +2453,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">

--- a/outputs/ML_Results/dist_commute/Magdeburg.xlsx
+++ b/outputs/ML_Results/dist_commute/Magdeburg.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ24812729" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ25164278" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ25443093" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ25712460" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ25988158" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ26239703" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ26498173" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ26768534" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ27041379" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ58537059" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ58798506" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ58977799" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ59170572" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ59359594" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ59548318" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ59735302" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ59922719" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ00117747" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,205 +466,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13487.70848663839</v>
+        <v>12161.73893319982</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00591087731036457</v>
+        <v>0.009269425462249462</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>207.9817514189604</v>
+        <v>-1342.877415145714</v>
       </c>
       <c r="C3" t="n">
-        <v>0.880973210199278</v>
+        <v>0.4725147144878612</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1575.60943366953</v>
+        <v>-389.4048944672161</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2566235635563646</v>
+        <v>0.6666332074467402</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2064.455790230199</v>
+        <v>-1778.16023151082</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4215301676074901</v>
+        <v>8.033344728894704e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>286.1138311934008</v>
+        <v>740.0701951168119</v>
       </c>
       <c r="C6" t="n">
-        <v>0.142758635935139</v>
+        <v>0.1742048985933123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1158.83530921275</v>
+        <v>1836.902107779178</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005313602366889651</v>
+        <v>0.003928203669335007</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-18.87423388252823</v>
+        <v>1278.931253377559</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3286585288972423</v>
+        <v>0.02255035493149704</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1400.265815060616</v>
+        <v>299.5765443580378</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00374720029795425</v>
+        <v>0.1254598162027863</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-457.5989243287231</v>
+        <v>-1148.653326346958</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3278705033843998</v>
+        <v>0.005523292305681331</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08598468888834</v>
+        <v>-19.52105484676191</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8323077972465938</v>
+        <v>0.3112292883369437</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0005619658441442367</v>
+        <v>-1261.021855047113</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0305713836833345</v>
+        <v>0.009081723187115956</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.11994588032388</v>
+        <v>-535.1880381392012</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6999709331601633</v>
+        <v>0.2522618389603121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.68673161317999</v>
+        <v>0.01282868986005499</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1154346554345049</v>
+        <v>0.9747897473403988</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7880.684877633367</v>
+        <v>-0.0006093071885834865</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005418863688237993</v>
+        <v>0.01872068548993052</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4743.290630437115</v>
+        <v>22.104493965206</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3588702555981509</v>
+        <v>0.7901348717202957</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>34.93148224998693</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1104233357763854</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-6782.328434763243</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01742617025515338</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-3894.61860309603</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4510610207314873</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-20524.23079426883</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.08056773416621048</v>
+      <c r="B20" t="n">
+        <v>-22953.96228130137</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.05042210068219401</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,205 +749,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13688.66142200764</v>
+        <v>12149.83448893985</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00401722483539679</v>
+        <v>0.007997464743012517</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.5691619148814</v>
+        <v>-1310.804541478966</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9242108165525298</v>
+        <v>0.5075666984212472</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1175.622144145108</v>
+        <v>-399.9729298731474</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3807107262490688</v>
+        <v>0.655621566854202</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1897.634389311839</v>
+        <v>-1306.830653209473</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4499072741771858</v>
+        <v>0.003227945884937897</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>141.9939885066302</v>
+        <v>625.1069998621603</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4533704591129437</v>
+        <v>0.2464759848781876</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1078.435216311985</v>
+        <v>1961.33531525276</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008163627430118172</v>
+        <v>0.001508536294083744</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.672311747882848</v>
+        <v>1165.343111930608</v>
       </c>
       <c r="C8" t="n">
-        <v>0.765109977845463</v>
+        <v>0.03476428958962711</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-971.6300179674173</v>
+        <v>169.1802745136978</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04275668766895007</v>
+        <v>0.3716510248567019</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-57.72893644934783</v>
+        <v>-1057.54990197713</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9001828467002284</v>
+        <v>0.009198815295079195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1511807943541416</v>
+        <v>-7.46171748618091</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7049818897399641</v>
+        <v>0.6934882190562848</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0003088394982042276</v>
+        <v>-900.8822351589826</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2296627204799536</v>
+        <v>0.05926608417075569</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.83368771148406</v>
+        <v>-128.5378723178248</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6543743326085809</v>
+        <v>0.7794032636165116</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.876948197962466</v>
+        <v>0.05780549313904209</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8217315911407767</v>
+        <v>0.8849643442181054</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9306.641118621024</v>
+        <v>-0.00035408149088961</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0007804939086389486</v>
+        <v>0.1679956214736081</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-6425.750913549881</v>
+        <v>31.71174221961125</v>
       </c>
       <c r="C16" t="n">
-        <v>0.204647104763738</v>
+        <v>0.6993483301025352</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6.574433569384194</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7601456963367798</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-8188.543220122646</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.00331963788897615</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-5398.369171402948</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2874519794106608</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-18655.19874416435</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1026426885247925</v>
+      <c r="B20" t="n">
+        <v>-20104.97992927008</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.07796275887637492</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +1000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,205 +1032,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12318.36272269537</v>
+        <v>10583.05305945097</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0161238443297325</v>
+        <v>0.02949061586698413</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>330.932603948435</v>
+        <v>-1367.936418653852</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8251516039524462</v>
+        <v>0.4970265168355562</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1316.673491732032</v>
+        <v>-406.2648218725581</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3795638465050705</v>
+        <v>0.6653792456520409</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1938.045904166871</v>
+        <v>-1663.173474172268</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4895453936680245</v>
+        <v>0.0003980819703792854</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>325.4369254798801</v>
+        <v>488.3340881856007</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1106766006757301</v>
+        <v>0.3926988695682037</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1418.497193705511</v>
+        <v>1908.677220536831</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00104106743283558</v>
+        <v>0.003506259451812413</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-11.98984296797366</v>
+        <v>1230.353449076588</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5450082301910886</v>
+        <v>0.03588844208403971</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-993.0128473099531</v>
+        <v>355.4964747397767</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04405123438511115</v>
+        <v>0.08135339219840576</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-445.9705939698901</v>
+        <v>-1353.822335125658</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3605060798911494</v>
+        <v>0.001708578278847841</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.09702220207107543</v>
+        <v>-12.27485002024572</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8173970989811962</v>
+        <v>0.5347104883092937</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.000453777584835746</v>
+        <v>-946.0992029419575</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09756460691413787</v>
+        <v>0.0539230667848658</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.78474578129853</v>
+        <v>-517.8079725407376</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6319579202516616</v>
+        <v>0.2883065077278332</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.28129873349906</v>
+        <v>0.02229833927830444</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09091509038355933</v>
+        <v>0.9576545151891354</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8305.766124301357</v>
+        <v>-0.0004961919039122305</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005584134163429842</v>
+        <v>0.07005298488137138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-7710.421372953426</v>
+        <v>36.72381068670555</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1459509304198602</v>
+        <v>0.6729401650775322</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>39.76082315563674</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.07701898173548735</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-7437.013713867189</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01326943473463858</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-6726.433371435824</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2043348131841883</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-25211.88029410662</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.03759662702138358</v>
+      <c r="B20" t="n">
+        <v>-26105.81222049213</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0312222536636964</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,205 +1315,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10906.91923811021</v>
+        <v>10404.18238107952</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02561749329852256</v>
+        <v>0.02689798768788031</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1767.285773670954</v>
+        <v>-977.2781284508073</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1957286944695728</v>
+        <v>0.6478833490734801</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>471.554398659991</v>
+        <v>-417.8241959724722</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7295792614348889</v>
+        <v>0.6418488736224069</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-215.5523206336586</v>
+        <v>-1214.362333140126</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9420373126819394</v>
+        <v>0.008856185001429654</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>239.2369765387592</v>
+        <v>457.0555146938449</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2376373558713247</v>
+        <v>0.4149510012356499</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1231.011980722164</v>
+        <v>2031.813941544457</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003807430419398768</v>
+        <v>0.001496952852526132</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.397126713792392</v>
+        <v>1353.012509044028</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7039971914632072</v>
+        <v>0.0182491968060984</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1278.202050258955</v>
+        <v>257.6855532027753</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009321462485958916</v>
+        <v>0.2034884254154447</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-7.051907746372706</v>
+        <v>-1176.614654557984</v>
       </c>
       <c r="C10" t="n">
-        <v>0.988180357161567</v>
+        <v>0.005487680009645073</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1551108853783167</v>
+        <v>-7.770994302334485</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7094560761488318</v>
+        <v>0.6890759257106975</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0003796708054676641</v>
+        <v>-1170.613402894921</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1507433447876059</v>
+        <v>0.01692834061059462</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39.9040965022775</v>
+        <v>-50.29633053971673</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6387605405725699</v>
+        <v>0.9156639546032161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14.76865841825196</v>
+        <v>0.1084619578773927</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5104271707256363</v>
+        <v>0.7939208755616196</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7515.496455291755</v>
+        <v>-0.000413254597690204</v>
       </c>
       <c r="C15" t="n">
-        <v>0.009252380502281839</v>
+        <v>0.1168326605491175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-5099.170342661782</v>
+        <v>35.86726896349754</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3373480620726592</v>
+        <v>0.6719013472352851</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>15.71968744746088</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4810609356343313</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-6202.200391811255</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.03299689390575616</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-4417.67543016854</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4049227731940969</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-15713.27093737767</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1911041021436414</v>
+      <c r="B20" t="n">
+        <v>-16672.25809059488</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.164866589052077</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,205 +1598,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13438.80987033129</v>
+        <v>11348.82974390351</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006455265035908632</v>
+        <v>0.01660867676541655</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-145.1427226757787</v>
+        <v>-1235.983854085939</v>
       </c>
       <c r="C3" t="n">
-        <v>0.920175439953809</v>
+        <v>0.5666213120410681</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1929.72153385236</v>
+        <v>-944.3051283790056</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1830371047291556</v>
+        <v>0.2917682709054665</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1992.474696349977</v>
+        <v>-1859.894287885214</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5106420024268321</v>
+        <v>6.884816571053526e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163.2561458586246</v>
+        <v>633.7104771444024</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4194199502800482</v>
+        <v>0.2572066251896084</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1146.365719744114</v>
+        <v>1988.797638807828</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007447166840855949</v>
+        <v>0.002277051673057144</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-20.36549327461134</v>
+        <v>1309.158792948538</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3005536340334091</v>
+        <v>0.02387123307094897</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1446.738262978266</v>
+        <v>200.0456421323971</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00338071467620221</v>
+        <v>0.3234153333999832</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-309.5557660887479</v>
+        <v>-1155.978552212533</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5188218660936983</v>
+        <v>0.006827157139498341</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2612745223134082</v>
+        <v>-20.61164124939508</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5341551163725864</v>
+        <v>0.2932777025085485</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0004826792513225016</v>
+        <v>-1409.542567327976</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07041602558328716</v>
+        <v>0.00419299980999606</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.02725344961593</v>
+        <v>-353.1347949209993</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5332604567210157</v>
+        <v>0.460797361464127</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32.50280795434104</v>
+        <v>0.1732619916702893</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1503584897161269</v>
+        <v>0.6800463982044997</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8852.063065858811</v>
+        <v>-0.0005017154147131412</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00259919675652159</v>
+        <v>0.05864076294772447</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-8474.871720384541</v>
+        <v>54.78248558890213</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1047678047500706</v>
+        <v>0.5178966212177817</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>32.76449296162822</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1446164964362948</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-7912.604097717195</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.007514620429585585</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-7567.358986595805</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.147824171697713</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-18251.36316354527</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1276079805240836</v>
+      <c r="B20" t="n">
+        <v>-19029.13702235781</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1110836312785193</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,205 +1881,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9267.467713241558</v>
+        <v>7453.476303151632</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07250638727368643</v>
+        <v>0.130547464209261</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>742.3910461969703</v>
+        <v>-1400.514541183688</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6148940623862464</v>
+        <v>0.4729230085017407</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-708.7545977002078</v>
+        <v>-573.5202908702452</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6312764204521391</v>
+        <v>0.5483779045337556</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1579.883379242076</v>
+        <v>-1435.984412300668</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5580151054627733</v>
+        <v>0.002349974302398252</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>236.99554469827</v>
+        <v>646.6203686914683</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2437536240096658</v>
+        <v>0.25860617754077</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1465.184684940667</v>
+        <v>2198.611284550254</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007457767266586583</v>
+        <v>0.0008599906394966474</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-17.03014468378098</v>
+        <v>1388.179788988002</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4002905880969645</v>
+        <v>0.01679659328096578</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1511.692891461856</v>
+        <v>257.3152310142826</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002635914583698645</v>
+        <v>0.2051279729170424</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-333.5786197862129</v>
+        <v>-1433.776385546128</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4982148581514112</v>
+        <v>0.0009178917551291848</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02635333835409276</v>
+        <v>-16.49470458621373</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9506597666287846</v>
+        <v>0.4138524799276002</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0004169111913458778</v>
+        <v>-1429.703161742888</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1289443338275822</v>
+        <v>0.004273852182031393</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>108.5227919289592</v>
+        <v>-347.5659844502381</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2197853848510113</v>
+        <v>0.4794703876511075</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.8267480817243</v>
+        <v>-0.111985197554646</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04448277367627609</v>
+        <v>0.7921530692188191</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7712.938630924211</v>
+        <v>-0.0004381388895315585</v>
       </c>
       <c r="C15" t="n">
-        <v>0.008873941198343194</v>
+        <v>0.1095153569004292</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-6772.9439197879</v>
+        <v>108.3730398580609</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2094232026541199</v>
+        <v>0.219500236326252</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>45.64536586325179</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.04828064587351879</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-6429.813995960569</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.03042361019105723</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-5483.853841109347</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3101716020528262</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-18380.03990278434</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1307303824177621</v>
+      <c r="B20" t="n">
+        <v>-18149.90457791607</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1344583664907512</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +2132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1930,205 +2164,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11769.83285941005</v>
+        <v>10050.67441348116</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01376071634536153</v>
+        <v>0.02919134739266841</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>495.0699680383399</v>
+        <v>-610.6370668932408</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7222805539489883</v>
+        <v>0.7626423195639966</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1008.130939452787</v>
+        <v>-385.461293905103</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4696675624451786</v>
+        <v>0.6701424504302408</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-763.1356306106054</v>
+        <v>-1540.182620538306</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7852323645933876</v>
+        <v>0.0007238230266816903</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>209.6216527868324</v>
+        <v>1053.35588947504</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2952773956259155</v>
+        <v>0.05554916736681134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1102.943341688164</v>
+        <v>1902.356309774076</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008309678567237039</v>
+        <v>0.002686853733014537</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-11.35378433547806</v>
+        <v>1443.389564575816</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5620147558930921</v>
+        <v>0.01032536392837781</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1272.657599014701</v>
+        <v>231.5019771031608</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008692768962867378</v>
+        <v>0.2471045816223808</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-433.6095792460639</v>
+        <v>-1120.763534524762</v>
       </c>
       <c r="C10" t="n">
-        <v>0.355669489747176</v>
+        <v>0.007131485460241162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1274078444787292</v>
+        <v>-12.20418531268508</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7574922576881555</v>
+        <v>0.532084639899878</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0004834514807791087</v>
+        <v>-1198.160897859937</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06608354928118892</v>
+        <v>0.01326680634972695</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.216188856812</v>
+        <v>-449.2556341597182</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5185800747381069</v>
+        <v>0.3383325192210755</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.94641650662706</v>
+        <v>0.07404477416763752</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1122821070736892</v>
+        <v>0.8573382064997462</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7317.145901401303</v>
+        <v>-0.0005003055484910706</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01214508285101458</v>
+        <v>0.05584118781486717</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-7519.818365673577</v>
+        <v>55.39444530889067</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1502285638766823</v>
+        <v>0.5078687921216987</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>34.54515962657911</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.114801450589901</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-6372.784105001821</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.02962562392641734</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-6657.660644894353</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2026237457159334</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-23407.27999452377</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.04176705710460488</v>
+      <c r="B20" t="n">
+        <v>-24240.00534056679</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.03463916041159849</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2174,205 +2447,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12427.8895799829</v>
+        <v>9930.812469569515</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01256619725813402</v>
+        <v>0.038380073602345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-566.2368918280428</v>
+        <v>-1685.824523873199</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7091891008528077</v>
+        <v>0.4094891316771285</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1914.85470791499</v>
+        <v>-498.4616497501113</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2071259654608026</v>
+        <v>0.5955898685894658</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2918.694405542112</v>
+        <v>-1376.714134780942</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2740736616008919</v>
+        <v>0.002683933709985595</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>105.0635958498668</v>
+        <v>397.089478295948</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6024986187992946</v>
+        <v>0.4734466669675922</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1134.720199299493</v>
+        <v>1471.056041339265</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006944936288831705</v>
+        <v>0.0206242090253171</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-15.40982605411426</v>
+        <v>1120.718384890703</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4291835690479516</v>
+        <v>0.05059326482065207</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1647.147934266249</v>
+        <v>133.8981162228923</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0007135711046373204</v>
+        <v>0.5086697156462645</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-27.82459419763205</v>
+        <v>-1139.079474676715</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9538998882168492</v>
+        <v>0.006673885396474268</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05418407649790873</v>
+        <v>-16.20751054853771</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8946178235506949</v>
+        <v>0.4049156157473384</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.000305468069631544</v>
+        <v>-1613.307304258253</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2592824330803385</v>
+        <v>0.0009409831160607514</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>96.41507014625356</v>
+        <v>-50.51197833532137</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2611063375395722</v>
+        <v>0.9164345832437523</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.01724285638871</v>
+        <v>-0.1016806206621259</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4736890979797499</v>
+        <v>0.803653599363672</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7990.933122883866</v>
+        <v>-0.0003257901831167095</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005489871754552521</v>
+        <v>0.2273080273285201</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3511.512175761668</v>
+        <v>97.57962916416301</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5021824930711087</v>
+        <v>0.2550025177570567</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17.24312031710361</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4391400835338589</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-7287.634281813011</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0121144747516959</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-2941.991732540683</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.574432945391212</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-12100.90527165263</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3045823372690666</v>
+      <c r="B20" t="n">
+        <v>-12508.22896912416</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.288556258596821</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,205 +2730,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14474.13871887862</v>
+        <v>12348.39675587518</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001772539651703495</v>
+        <v>0.005486510784287835</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.0005529540163</v>
+        <v>-2433.492295785272</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9254896796061987</v>
+        <v>0.1971862461970271</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1439.935548507535</v>
+        <v>-1154.08660000518</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2613208276686772</v>
+        <v>0.1869771525282025</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3774.423694917728</v>
+        <v>-1651.757083272057</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1420225944050647</v>
+        <v>0.0001908587401109755</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>377.113142731103</v>
+        <v>684.4373377769734</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04711919528507469</v>
+        <v>0.1976379900065847</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1373.438188846215</v>
+        <v>2319.24924256896</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0006952753399179236</v>
+        <v>0.0001377022674144312</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.99583135449693</v>
+        <v>830.1631256146961</v>
       </c>
       <c r="C8" t="n">
-        <v>0.629653387918522</v>
+        <v>0.1308584655938157</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1185.973209091042</v>
+        <v>428.2550346979599</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01093392751881167</v>
+        <v>0.02421902795979586</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-319.74250169972</v>
+        <v>-1360.64423332741</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4788844373184967</v>
+        <v>0.0007244828917268931</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.03741147117065037</v>
+        <v>-8.368144331434012</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9249550666522842</v>
+        <v>0.6529301741619116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0003790964524886034</v>
+        <v>-1100.563846179033</v>
       </c>
       <c r="C12" t="n">
-        <v>0.129375960824336</v>
+        <v>0.01779312592600813</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.23965228578058</v>
+        <v>-374.9996387319649</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5806000781849392</v>
+        <v>0.4059244397554693</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.683549114305668</v>
+        <v>-0.09537181625668245</v>
       </c>
       <c r="C14" t="n">
-        <v>0.649517300822807</v>
+        <v>0.8100678242623516</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7778.15318704512</v>
+        <v>-0.0004231654897947655</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005761670602354581</v>
+        <v>0.08827726404296304</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4642.817295452363</v>
+        <v>39.64396188263199</v>
       </c>
       <c r="C16" t="n">
-        <v>0.35208989690019</v>
+        <v>0.6181980086705404</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>12.26889087941204</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5621957546924886</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-6714.81081514396</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01776029989672677</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-4044.79642439717</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4174836007073488</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-20440.8496601254</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07512290328388527</v>
+      <c r="B20" t="n">
+        <v>-22056.00912203287</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.05411632702067926</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Magdeburg.xlsx
+++ b/outputs/ML_Results/dist_commute/Magdeburg.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ58537059" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ58798506" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ58977799" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ59170572" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ59359594" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ59548318" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ59735302" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ59922719" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ00117747" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ53598673" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ53887350" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ54116135" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ54335393" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ54576633" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ54808020" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ55061655" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ55314716" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ55573711" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12161.73893319982</v>
+        <v>8420.951001415695</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009269425462249462</v>
+        <v>0.04845003941462021</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1342.877415145714</v>
+        <v>-1531.290117263677</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4725147144878612</v>
+        <v>0.4126885351420111</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-389.4048944672161</v>
+        <v>-416.4907914280755</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6666332074467402</v>
+        <v>0.6453840405415152</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1778.16023151082</v>
+        <v>-1783.429515765656</v>
       </c>
       <c r="C5" t="n">
-        <v>8.033344728894704e-05</v>
+        <v>7.816955744918259e-05</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>740.0701951168119</v>
+        <v>695.9788192779099</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1742048985933123</v>
+        <v>0.2014807125088089</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1836.902107779178</v>
+        <v>1770.616269333772</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003928203669335007</v>
+        <v>0.005427713140266324</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1278.931253377559</v>
+        <v>1200.125562767422</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02255035493149704</v>
+        <v>0.03207618392661624</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>299.5765443580378</v>
+        <v>279.5045010856447</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1254598162027863</v>
+        <v>0.1527780244256728</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1148.653326346958</v>
+        <v>-1112.597423948443</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005523292305681331</v>
+        <v>0.007206115642285581</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-19.52105484676191</v>
+        <v>-21.69822006660222</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3112292883369437</v>
+        <v>0.2601980112095164</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1261.021855047113</v>
+        <v>-1552.352215938432</v>
       </c>
       <c r="C12" t="n">
-        <v>0.009081723187115956</v>
+        <v>0.0007566054107454745</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-535.1880381392012</v>
+        <v>180.7809816699397</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2522618389603121</v>
+        <v>0.5350472629819452</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01282868986005499</v>
+        <v>-0.02105607233364339</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9747897473403988</v>
+        <v>0.9586500095559287</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0006093071885834865</v>
+        <v>-0.0003334279444601797</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01872068548993052</v>
+        <v>0.12532655341921</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.104493965206</v>
+        <v>82.19490420502984</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7901348717202957</v>
+        <v>0.2876355630922413</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.93148224998693</v>
+        <v>13.38556944806368</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1104233357763854</v>
+        <v>0.4794341002170096</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6782.328434763243</v>
+        <v>-5009.537661322604</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01742617025515338</v>
+        <v>0.0642163183253309</v>
       </c>
     </row>
     <row r="19">
@@ -687,23 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3894.61860309603</v>
+        <v>-1501.94566979091</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4510610207314873</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-22953.96228130137</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.05042210068219401</v>
+        <v>0.7651174479975907</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12149.83448893985</v>
+        <v>8577.821832189406</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007997464743012517</v>
+        <v>0.03683737308227929</v>
       </c>
     </row>
     <row r="3">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1310.804541478966</v>
+        <v>-1473.710480079187</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5075666984212472</v>
+        <v>0.4562427523225884</v>
       </c>
     </row>
     <row r="4">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-399.9729298731474</v>
+        <v>-372.7454034897806</v>
       </c>
       <c r="C4" t="n">
-        <v>0.655621566854202</v>
+        <v>0.6779471062716379</v>
       </c>
     </row>
     <row r="5">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1306.830653209473</v>
+        <v>-1293.290150337511</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003227945884937897</v>
+        <v>0.00358704039170151</v>
       </c>
     </row>
     <row r="6">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>625.1069998621603</v>
+        <v>583.0918412074782</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2464759848781876</v>
+        <v>0.2796531787177163</v>
       </c>
     </row>
     <row r="7">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1961.33531525276</v>
+        <v>1933.894904118673</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001508536294083744</v>
+        <v>0.001767193206828158</v>
       </c>
     </row>
     <row r="8">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1165.343111930608</v>
+        <v>1103.008764087156</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03476428958962711</v>
+        <v>0.04544156602357875</v>
       </c>
     </row>
     <row r="9">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>169.1802745136978</v>
+        <v>154.2095185200812</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3716510248567019</v>
+        <v>0.4154281976252272</v>
       </c>
     </row>
     <row r="10">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1057.54990197713</v>
+        <v>-1046.451988248325</v>
       </c>
       <c r="C10" t="n">
-        <v>0.009198815295079195</v>
+        <v>0.01002020178252964</v>
       </c>
     </row>
     <row r="11">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-7.46171748618091</v>
+        <v>-10.07413769165111</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6934882190562848</v>
+        <v>0.593887047438456</v>
       </c>
     </row>
     <row r="12">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-900.8822351589826</v>
+        <v>-1133.266230972839</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05926608417075569</v>
+        <v>0.01370682866143962</v>
       </c>
     </row>
     <row r="13">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-128.5378723178248</v>
+        <v>508.9734590128601</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7794032636165116</v>
+        <v>0.07236267274828073</v>
       </c>
     </row>
     <row r="14">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05780549313904209</v>
+        <v>0.02493489579236515</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8849643442181054</v>
+        <v>0.9502317545922755</v>
       </c>
     </row>
     <row r="15">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.00035408149088961</v>
+        <v>-9.703058189082469e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1679956214736081</v>
+        <v>0.6464890213566848</v>
       </c>
     </row>
     <row r="16">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.71174221961125</v>
+        <v>87.92318310030525</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6993483301025352</v>
+        <v>0.245890960458778</v>
       </c>
     </row>
     <row r="17">
@@ -944,10 +931,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.574433569384194</v>
+        <v>-11.88403734182437</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7601456963367798</v>
+        <v>0.5282056177438212</v>
       </c>
     </row>
     <row r="18">
@@ -957,10 +944,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-8188.543220122646</v>
+        <v>-6528.404220412567</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00331963788897615</v>
+        <v>0.0128934402148446</v>
       </c>
     </row>
     <row r="19">
@@ -970,23 +957,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5398.369171402948</v>
+        <v>-3365.082228765144</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2874519794106608</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-20104.97992927008</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.07796275887637492</v>
+        <v>0.4962997363157453</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10583.05305945097</v>
+        <v>5781.757433646508</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02949061586698413</v>
+        <v>0.1812731981399391</v>
       </c>
     </row>
     <row r="3">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1367.936418653852</v>
+        <v>-1602.930256636392</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4970265168355562</v>
+        <v>0.4262406879139368</v>
       </c>
     </row>
     <row r="4">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-406.2648218725581</v>
+        <v>-512.288273340444</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6653792456520409</v>
+        <v>0.5856286406325122</v>
       </c>
     </row>
     <row r="5">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1663.173474172268</v>
+        <v>-1650.010393624917</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003980819703792854</v>
+        <v>0.0004516622817772354</v>
       </c>
     </row>
     <row r="6">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>488.3340881856007</v>
+        <v>446.737177574304</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3926988695682037</v>
+        <v>0.4347587155466217</v>
       </c>
     </row>
     <row r="7">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1908.677220536831</v>
+        <v>1863.987802584035</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003506259451812413</v>
+        <v>0.004399213072325297</v>
       </c>
     </row>
     <row r="8">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1230.353449076588</v>
+        <v>1184.315207157332</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03588844208403971</v>
+        <v>0.04361542548334415</v>
       </c>
     </row>
     <row r="9">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>355.4964747397767</v>
+        <v>335.8953744476154</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08135339219840576</v>
+        <v>0.09981013758577087</v>
       </c>
     </row>
     <row r="10">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1353.822335125658</v>
+        <v>-1322.091075178644</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001708578278847841</v>
+        <v>0.002212264729129712</v>
       </c>
     </row>
     <row r="11">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-12.27485002024572</v>
+        <v>-16.01680868127599</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5347104883092937</v>
+        <v>0.4169030686842038</v>
       </c>
     </row>
     <row r="12">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-946.0992029419575</v>
+        <v>-1245.345225505792</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0539230667848658</v>
+        <v>0.008321536066609387</v>
       </c>
     </row>
     <row r="13">
@@ -1175,10 +1149,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-517.8079725407376</v>
+        <v>310.8645051115699</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2883065077278332</v>
+        <v>0.3010997210263038</v>
       </c>
     </row>
     <row r="14">
@@ -1188,10 +1162,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02229833927830444</v>
+        <v>-0.02892140110857033</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9576545151891354</v>
+        <v>0.9450993887005833</v>
       </c>
     </row>
     <row r="15">
@@ -1201,10 +1175,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0004961919039122305</v>
+        <v>-0.0001559525036049922</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07005298488137138</v>
+        <v>0.4863848322416062</v>
       </c>
     </row>
     <row r="16">
@@ -1214,10 +1188,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>36.72381068670555</v>
+        <v>111.6945145773183</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6729401650775322</v>
+        <v>0.1622321644856726</v>
       </c>
     </row>
     <row r="17">
@@ -1227,10 +1201,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>39.76082315563674</v>
+        <v>16.41586961826314</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07701898173548735</v>
+        <v>0.4053130371212175</v>
       </c>
     </row>
     <row r="18">
@@ -1240,10 +1214,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-7437.013713867189</v>
+        <v>-5163.469104291609</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01326943473463858</v>
+        <v>0.06654956517239081</v>
       </c>
     </row>
     <row r="19">
@@ -1253,23 +1227,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-6726.433371435824</v>
+        <v>-4110.62986242688</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2043348131841883</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-26105.81222049213</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0312222536636964</v>
+        <v>0.4262092578805073</v>
       </c>
     </row>
   </sheetData>
@@ -1283,7 +1244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10404.18238107952</v>
+        <v>7809.002144441183</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02689798768788031</v>
+        <v>0.07025999957599494</v>
       </c>
     </row>
     <row r="3">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-977.2781284508073</v>
+        <v>-1101.315644563982</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6478833490734801</v>
+        <v>0.6066296937062701</v>
       </c>
     </row>
     <row r="4">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-417.8241959724722</v>
+        <v>-439.4855178133945</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6418488736224069</v>
+        <v>0.6247787709641095</v>
       </c>
     </row>
     <row r="5">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1214.362333140126</v>
+        <v>-1196.89859732406</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008856185001429654</v>
+        <v>0.009883649572731631</v>
       </c>
     </row>
     <row r="6">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>457.0555146938449</v>
+        <v>413.762321921245</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4149510012356499</v>
+        <v>0.4600051902028034</v>
       </c>
     </row>
     <row r="7">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2031.813941544457</v>
+        <v>2003.383051782556</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001496952852526132</v>
+        <v>0.001740274995716771</v>
       </c>
     </row>
     <row r="8">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1353.012509044028</v>
+        <v>1303.674161657385</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0182491968060984</v>
+        <v>0.02272319310682748</v>
       </c>
     </row>
     <row r="9">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>257.6855532027753</v>
+        <v>243.856728126827</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2034884254154447</v>
+        <v>0.2284296567540914</v>
       </c>
     </row>
     <row r="10">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1176.614654557984</v>
+        <v>-1173.536751977875</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005487680009645073</v>
+        <v>0.005630886313933162</v>
       </c>
     </row>
     <row r="11">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-7.770994302334485</v>
+        <v>-9.986408735596982</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6890759257106975</v>
+        <v>0.6060762244849753</v>
       </c>
     </row>
     <row r="12">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1170.613402894921</v>
+        <v>-1380.028214391425</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01692834061059462</v>
+        <v>0.003117521591736036</v>
       </c>
     </row>
     <row r="13">
@@ -1458,10 +1419,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-50.29633053971673</v>
+        <v>466.4050416355832</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9156639546032161</v>
+        <v>0.1148092861954517</v>
       </c>
     </row>
     <row r="14">
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1084619578773927</v>
+        <v>0.08076073898597505</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7939208755616196</v>
+        <v>0.8456682146065873</v>
       </c>
     </row>
     <row r="15">
@@ -1484,10 +1445,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.000413254597690204</v>
+        <v>-0.0002159956838270393</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1168326605491175</v>
+        <v>0.3305291666360066</v>
       </c>
     </row>
     <row r="16">
@@ -1497,10 +1458,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35.86726896349754</v>
+        <v>77.84833379335534</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6719013472352851</v>
+        <v>0.3253934296924156</v>
       </c>
     </row>
     <row r="17">
@@ -1510,10 +1471,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15.71968744746088</v>
+        <v>-0.06894853946941737</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4810609356343313</v>
+        <v>0.9971355047118728</v>
       </c>
     </row>
     <row r="18">
@@ -1523,10 +1484,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6202.200391811255</v>
+        <v>-4915.602041749682</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03299689390575616</v>
+        <v>0.07465879485389476</v>
       </c>
     </row>
     <row r="19">
@@ -1536,23 +1497,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4417.67543016854</v>
+        <v>-2632.346262035956</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4049227731940969</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-16672.25809059488</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.164866589052077</v>
+        <v>0.6091097403706472</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11348.82974390351</v>
+        <v>8137.691034060221</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01660867676541655</v>
+        <v>0.05774116673336183</v>
       </c>
     </row>
     <row r="3">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1235.983854085939</v>
+        <v>-1388.511645660768</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5666213120410681</v>
+        <v>0.5196320528210984</v>
       </c>
     </row>
     <row r="4">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-944.3051283790056</v>
+        <v>-945.2885077735955</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2917682709054665</v>
+        <v>0.2916098926422174</v>
       </c>
     </row>
     <row r="5">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1859.894287885214</v>
+        <v>-1857.968101961236</v>
       </c>
       <c r="C5" t="n">
-        <v>6.884816571053526e-05</v>
+        <v>7.086785731425996e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>633.7104771444024</v>
+        <v>605.8209632032672</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2572066251896084</v>
+        <v>0.2788348422101458</v>
       </c>
     </row>
     <row r="7">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1988.797638807828</v>
+        <v>1984.599529477993</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002277051673057144</v>
+        <v>0.002342705873431418</v>
       </c>
     </row>
     <row r="8">
@@ -1676,10 +1624,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1309.158792948538</v>
+        <v>1264.246298092919</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02387123307094897</v>
+        <v>0.02904344316094445</v>
       </c>
     </row>
     <row r="9">
@@ -1689,10 +1637,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>200.0456421323971</v>
+        <v>188.7170282363977</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3234153333999832</v>
+        <v>0.3516071649717505</v>
       </c>
     </row>
     <row r="10">
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1155.978552212533</v>
+        <v>-1141.562308658765</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006827157139498341</v>
+        <v>0.00757970795443317</v>
       </c>
     </row>
     <row r="11">
@@ -1715,10 +1663,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-20.61164124939508</v>
+        <v>-23.81868307314423</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2932777025085485</v>
+        <v>0.2224856315731687</v>
       </c>
     </row>
     <row r="12">
@@ -1728,10 +1676,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1409.542567327976</v>
+        <v>-1628.456759106652</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00419299980999606</v>
+        <v>0.0005819871105734622</v>
       </c>
     </row>
     <row r="13">
@@ -1741,10 +1689,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-353.1347949209993</v>
+        <v>243.6495713022661</v>
       </c>
       <c r="C13" t="n">
-        <v>0.460797361464127</v>
+        <v>0.4146894509853084</v>
       </c>
     </row>
     <row r="14">
@@ -1754,10 +1702,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1732619916702893</v>
+        <v>0.1416240301699313</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6800463982044997</v>
+        <v>0.7359394135050071</v>
       </c>
     </row>
     <row r="15">
@@ -1767,10 +1715,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0005017154147131412</v>
+        <v>-0.0002690455625638737</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05864076294772447</v>
+        <v>0.2246332693618334</v>
       </c>
     </row>
     <row r="16">
@@ -1780,10 +1728,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>54.78248558890213</v>
+        <v>104.5393392052434</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5178966212177817</v>
+        <v>0.184887979402752</v>
       </c>
     </row>
     <row r="17">
@@ -1793,10 +1741,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>32.76449296162822</v>
+        <v>15.34470776422359</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1446164964362948</v>
+        <v>0.4343178313475314</v>
       </c>
     </row>
     <row r="18">
@@ -1806,10 +1754,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-7912.604097717195</v>
+        <v>-6300.507160572923</v>
       </c>
       <c r="C18" t="n">
-        <v>0.007514620429585585</v>
+        <v>0.0235310546949387</v>
       </c>
     </row>
     <row r="19">
@@ -1819,23 +1767,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-7567.358986595805</v>
+        <v>-5544.7916428396</v>
       </c>
       <c r="C19" t="n">
-        <v>0.147824171697713</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-19029.13702235781</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1110836312785193</v>
+        <v>0.2745746490118433</v>
       </c>
     </row>
   </sheetData>
@@ -1849,7 +1784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7453.476303151632</v>
+        <v>4251.625487266682</v>
       </c>
       <c r="C2" t="n">
-        <v>0.130547464209261</v>
+        <v>0.3385525299051692</v>
       </c>
     </row>
     <row r="3">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1400.514541183688</v>
+        <v>-1547.623815127086</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4729230085017407</v>
+        <v>0.4273984359393527</v>
       </c>
     </row>
     <row r="4">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-573.5202908702452</v>
+        <v>-594.6633480034039</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5483779045337556</v>
+        <v>0.5339250983767361</v>
       </c>
     </row>
     <row r="5">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1435.984412300668</v>
+        <v>-1410.495157114398</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002349974302398252</v>
+        <v>0.002803634105154529</v>
       </c>
     </row>
     <row r="6">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>646.6203686914683</v>
+        <v>632.3063207684205</v>
       </c>
       <c r="C6" t="n">
-        <v>0.25860617754077</v>
+        <v>0.269498476270864</v>
       </c>
     </row>
     <row r="7">
@@ -1946,10 +1881,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2198.611284550254</v>
+        <v>2211.521653558127</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0008599906394966474</v>
+        <v>0.0008064405194941323</v>
       </c>
     </row>
     <row r="8">
@@ -1959,10 +1894,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1388.179788988002</v>
+        <v>1361.553705492718</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01679659328096578</v>
+        <v>0.01901974758910658</v>
       </c>
     </row>
     <row r="9">
@@ -1972,10 +1907,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>257.3152310142826</v>
+        <v>244.6464641178209</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2051279729170424</v>
+        <v>0.228168364849938</v>
       </c>
     </row>
     <row r="10">
@@ -1985,10 +1920,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1433.776385546128</v>
+        <v>-1413.656076911348</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0009178917551291848</v>
+        <v>0.001083148042120885</v>
       </c>
     </row>
     <row r="11">
@@ -1998,10 +1933,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-16.49470458621373</v>
+        <v>-18.9558404558758</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4138524799276002</v>
+        <v>0.3463998560963544</v>
       </c>
     </row>
     <row r="12">
@@ -2011,10 +1946,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1429.703161742888</v>
+        <v>-1636.509349426414</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004273852182031393</v>
+        <v>0.0006773921223645955</v>
       </c>
     </row>
     <row r="13">
@@ -2024,10 +1959,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-347.5659844502381</v>
+        <v>232.6947889377099</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4794703876511075</v>
+        <v>0.4417493636205759</v>
       </c>
     </row>
     <row r="14">
@@ -2037,10 +1972,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.111985197554646</v>
+        <v>-0.1392555971877281</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7921530692188191</v>
+        <v>0.7430654996247079</v>
       </c>
     </row>
     <row r="15">
@@ -2050,10 +1985,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0004381388895315585</v>
+        <v>-0.0002072116476821311</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1095153569004292</v>
+        <v>0.3596160305631506</v>
       </c>
     </row>
     <row r="16">
@@ -2063,10 +1998,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>108.3730398580609</v>
+        <v>158.1702517697078</v>
       </c>
       <c r="C16" t="n">
-        <v>0.219500236326252</v>
+        <v>0.05328355838461099</v>
       </c>
     </row>
     <row r="17">
@@ -2076,10 +2011,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>45.64536586325179</v>
+        <v>28.70483890090009</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04828064587351879</v>
+        <v>0.1543337567090527</v>
       </c>
     </row>
     <row r="18">
@@ -2089,10 +2024,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6429.813995960569</v>
+        <v>-4910.33469908783</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03042361019105723</v>
+        <v>0.07863030937975803</v>
       </c>
     </row>
     <row r="19">
@@ -2102,23 +2037,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5483.853841109347</v>
+        <v>-3694.07543358999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3101716020528262</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-18149.90457791607</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1344583664907512</v>
+        <v>0.4834938904963986</v>
       </c>
     </row>
   </sheetData>
@@ -2132,7 +2054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10050.67441348116</v>
+        <v>5841.406615891998</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02919134739266841</v>
+        <v>0.1602075371751708</v>
       </c>
     </row>
     <row r="3">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-610.6370668932408</v>
+        <v>-823.9305004449831</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7626423195639966</v>
+        <v>0.6837496330068651</v>
       </c>
     </row>
     <row r="4">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-385.461293905103</v>
+        <v>-393.6752120470833</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6701424504302408</v>
+        <v>0.6640449919753327</v>
       </c>
     </row>
     <row r="5">
@@ -2203,10 +2125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1540.182620538306</v>
+        <v>-1525.094265983046</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0007238230266816903</v>
+        <v>0.0008301865317601436</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1053.35588947504</v>
+        <v>1033.829972487556</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05554916736681134</v>
+        <v>0.06060268522396045</v>
       </c>
     </row>
     <row r="7">
@@ -2229,10 +2151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1902.356309774076</v>
+        <v>1903.589283616879</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002686853733014537</v>
+        <v>0.002712110077140448</v>
       </c>
     </row>
     <row r="8">
@@ -2242,10 +2164,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1443.389564575816</v>
+        <v>1382.964329494181</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01032536392837781</v>
+        <v>0.01401337723906774</v>
       </c>
     </row>
     <row r="9">
@@ -2255,10 +2177,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>231.5019771031608</v>
+        <v>207.9381726559637</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2471045816223808</v>
+        <v>0.2985195485671835</v>
       </c>
     </row>
     <row r="10">
@@ -2268,10 +2190,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1120.763534524762</v>
+        <v>-1115.840991710611</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007131485460241162</v>
+        <v>0.007481198106987679</v>
       </c>
     </row>
     <row r="11">
@@ -2281,10 +2203,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-12.20418531268508</v>
+        <v>-15.70658890536563</v>
       </c>
       <c r="C11" t="n">
-        <v>0.532084639899878</v>
+        <v>0.4204115406133971</v>
       </c>
     </row>
     <row r="12">
@@ -2294,10 +2216,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1198.160897859937</v>
+        <v>-1490.52652573105</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01326680634972695</v>
+        <v>0.001341021101156146</v>
       </c>
     </row>
     <row r="13">
@@ -2307,10 +2229,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-449.2556341597182</v>
+        <v>329.1311868112701</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3383325192210755</v>
+        <v>0.2586800462994458</v>
       </c>
     </row>
     <row r="14">
@@ -2320,10 +2242,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07404477416763752</v>
+        <v>0.04432803767210525</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8573382064997462</v>
+        <v>0.9143853448750592</v>
       </c>
     </row>
     <row r="15">
@@ -2333,10 +2255,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0005003055484910706</v>
+        <v>-0.0001938465487320502</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05584118781486717</v>
+        <v>0.3737856399263672</v>
       </c>
     </row>
     <row r="16">
@@ -2346,10 +2268,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55.39444530889067</v>
+        <v>122.9893237825365</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5078687921216987</v>
+        <v>0.1123835490903625</v>
       </c>
     </row>
     <row r="17">
@@ -2359,10 +2281,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.54515962657911</v>
+        <v>11.77693528052823</v>
       </c>
       <c r="C17" t="n">
-        <v>0.114801450589901</v>
+        <v>0.5374050865123254</v>
       </c>
     </row>
     <row r="18">
@@ -2372,10 +2294,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6372.784105001821</v>
+        <v>-4357.160017890836</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02962562392641734</v>
+        <v>0.1161441448879837</v>
       </c>
     </row>
     <row r="19">
@@ -2385,23 +2307,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-6657.660644894353</v>
+        <v>-4340.263744234282</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2026237457159334</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-24240.00534056679</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.03463916041159849</v>
+        <v>0.3962480560211175</v>
       </c>
     </row>
   </sheetData>
@@ -2415,7 +2324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9930.812469569515</v>
+        <v>7715.41475093814</v>
       </c>
       <c r="C2" t="n">
-        <v>0.038380073602345</v>
+        <v>0.07383422293982915</v>
       </c>
     </row>
     <row r="3">
@@ -2460,10 +2369,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1685.824523873199</v>
+        <v>-1792.564787170033</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4094891316771285</v>
+        <v>0.3799385696373798</v>
       </c>
     </row>
     <row r="4">
@@ -2473,10 +2382,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-498.4616497501113</v>
+        <v>-531.4815323208679</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5955898685894658</v>
+        <v>0.5712683855685</v>
       </c>
     </row>
     <row r="5">
@@ -2486,10 +2395,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1376.714134780942</v>
+        <v>-1368.637487821047</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002683933709985595</v>
+        <v>0.002840435648463143</v>
       </c>
     </row>
     <row r="6">
@@ -2499,10 +2408,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>397.089478295948</v>
+        <v>377.8607793662068</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4734466669675922</v>
+        <v>0.494922390461244</v>
       </c>
     </row>
     <row r="7">
@@ -2512,10 +2421,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1471.056041339265</v>
+        <v>1474.02087517243</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0206242090253171</v>
+        <v>0.02037677526892015</v>
       </c>
     </row>
     <row r="8">
@@ -2525,10 +2434,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1120.718384890703</v>
+        <v>1093.152540866168</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05059326482065207</v>
+        <v>0.05629302487037938</v>
       </c>
     </row>
     <row r="9">
@@ -2538,10 +2447,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>133.8981162228923</v>
+        <v>119.3591633079554</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5086697156462645</v>
+        <v>0.554871664572736</v>
       </c>
     </row>
     <row r="10">
@@ -2551,10 +2460,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1139.079474676715</v>
+        <v>-1130.423597849805</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006673885396474268</v>
+        <v>0.007091788565239925</v>
       </c>
     </row>
     <row r="11">
@@ -2564,10 +2473,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-16.20751054853771</v>
+        <v>-17.85727827644187</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4049156157473384</v>
+        <v>0.357307590743257</v>
       </c>
     </row>
     <row r="12">
@@ -2577,10 +2486,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1613.307304258253</v>
+        <v>-1765.772621996006</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0009409831160607514</v>
+        <v>0.0001531814791694601</v>
       </c>
     </row>
     <row r="13">
@@ -2590,10 +2499,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-50.51197833532137</v>
+        <v>349.6096036814214</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9164345832437523</v>
+        <v>0.2432236201507423</v>
       </c>
     </row>
     <row r="14">
@@ -2603,10 +2512,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1016806206621259</v>
+        <v>-0.1243459933581866</v>
       </c>
       <c r="C14" t="n">
-        <v>0.803653599363672</v>
+        <v>0.7607956047318686</v>
       </c>
     </row>
     <row r="15">
@@ -2616,10 +2525,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0003257901831167095</v>
+        <v>-0.0001648883489974994</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2273080273285201</v>
+        <v>0.4600343164819151</v>
       </c>
     </row>
     <row r="16">
@@ -2629,10 +2538,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.57962916416301</v>
+        <v>133.4057460982872</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2550025177570567</v>
+        <v>0.09059160469863621</v>
       </c>
     </row>
     <row r="17">
@@ -2642,10 +2551,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17.24312031710361</v>
+        <v>5.663540610785113</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4391400835338589</v>
+        <v>0.7707320783084671</v>
       </c>
     </row>
     <row r="18">
@@ -2655,10 +2564,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-7287.634281813011</v>
+        <v>-6274.056336291308</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0121144747516959</v>
+        <v>0.02215114397032235</v>
       </c>
     </row>
     <row r="19">
@@ -2668,23 +2577,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-2941.991732540683</v>
+        <v>-1689.171000561326</v>
       </c>
       <c r="C19" t="n">
-        <v>0.574432945391212</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-12508.22896912416</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.288556258596821</v>
+        <v>0.7407105484415393</v>
       </c>
     </row>
   </sheetData>
@@ -2698,7 +2594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,10 +2626,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12348.39675587518</v>
+        <v>8855.533210685879</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005486510784287835</v>
+        <v>0.02923391033948664</v>
       </c>
     </row>
     <row r="3">
@@ -2743,10 +2639,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2433.492295785272</v>
+        <v>-2618.745139182293</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1971862461970271</v>
+        <v>0.1652098544272037</v>
       </c>
     </row>
     <row r="4">
@@ -2756,10 +2652,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1154.08660000518</v>
+        <v>-1133.682147038695</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1869771525282025</v>
+        <v>0.1954122910864511</v>
       </c>
     </row>
     <row r="5">
@@ -2769,10 +2665,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1651.757083272057</v>
+        <v>-1630.400562713445</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001908587401109755</v>
+        <v>0.0002337309910517127</v>
       </c>
     </row>
     <row r="6">
@@ -2782,10 +2678,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>684.4373377769734</v>
+        <v>669.5389472284101</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1976379900065847</v>
+        <v>0.2080873635261836</v>
       </c>
     </row>
     <row r="7">
@@ -2795,10 +2691,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2319.24924256896</v>
+        <v>2283.820594789311</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001377022674144312</v>
+        <v>0.00017581419078458</v>
       </c>
     </row>
     <row r="8">
@@ -2808,10 +2704,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>830.1631256146961</v>
+        <v>757.7863881969751</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1308584655938157</v>
+        <v>0.1673909594647718</v>
       </c>
     </row>
     <row r="9">
@@ -2821,10 +2717,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>428.2550346979599</v>
+        <v>406.4365999209467</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02421902795979586</v>
+        <v>0.03233896945562627</v>
       </c>
     </row>
     <row r="10">
@@ -2834,10 +2730,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1360.64423332741</v>
+        <v>-1357.336573983889</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0007244828917268931</v>
+        <v>0.0007577045948528788</v>
       </c>
     </row>
     <row r="11">
@@ -2847,10 +2743,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-8.368144331434012</v>
+        <v>-11.15190818117957</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6529301741619116</v>
+        <v>0.5482868927981071</v>
       </c>
     </row>
     <row r="12">
@@ -2860,10 +2756,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1100.563846179033</v>
+        <v>-1369.663564510649</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01779312592600813</v>
+        <v>0.002027776380626766</v>
       </c>
     </row>
     <row r="13">
@@ -2873,10 +2769,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-374.9996387319649</v>
+        <v>305.7612474051001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4059244397554693</v>
+        <v>0.2767864893036416</v>
       </c>
     </row>
     <row r="14">
@@ -2886,10 +2782,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.09537181625668245</v>
+        <v>-0.1343283538418547</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8100678242623516</v>
+        <v>0.7349713762935868</v>
       </c>
     </row>
     <row r="15">
@@ -2899,10 +2795,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0004231654897947655</v>
+        <v>-0.0001641131556826913</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08827726404296304</v>
+        <v>0.4319331593239319</v>
       </c>
     </row>
     <row r="16">
@@ -2912,10 +2808,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>39.64396188263199</v>
+        <v>94.55954661563965</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6181980086705404</v>
+        <v>0.2036237732077746</v>
       </c>
     </row>
     <row r="17">
@@ -2925,10 +2821,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12.26889087941204</v>
+        <v>-8.289396092952718</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5621957546924886</v>
+        <v>0.650697407251933</v>
       </c>
     </row>
     <row r="18">
@@ -2938,10 +2834,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6714.81081514396</v>
+        <v>-4868.158751318987</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01776029989672677</v>
+        <v>0.06796285195892664</v>
       </c>
     </row>
     <row r="19">
@@ -2951,23 +2847,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4044.79642439717</v>
+        <v>-1626.250464020733</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4174836007073488</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-22056.00912203287</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.05411632702067926</v>
+        <v>0.7365400290708617</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Magdeburg.xlsx
+++ b/outputs/ML_Results/dist_commute/Magdeburg.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ53598673" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ53887350" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ54116135" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ54335393" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ54576633" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ54808020" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ55061655" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ55314716" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ55573711" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ29540111" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ29759883" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ30013367" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ30249420" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ30500742" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ30736725" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ30989494" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ31225691" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ31483881" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8420.951001415695</v>
+        <v>3566.700175024885</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04845003941462021</v>
+        <v>0.4683625448803139</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1531.290117263677</v>
+        <v>-2974.967040691957</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4126885351420111</v>
+        <v>0.2089000960267269</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-416.4907914280755</v>
+        <v>-1032.262441544088</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6453840405415152</v>
+        <v>0.3181187817527188</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1783.429515765656</v>
+        <v>-2268.692453880215</v>
       </c>
       <c r="C5" t="n">
-        <v>7.816955744918259e-05</v>
+        <v>1.587250968482977e-05</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>695.9788192779099</v>
+        <v>942.509602858724</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2014807125088089</v>
+        <v>0.1402056709600592</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1770.616269333772</v>
+        <v>2340.113584179778</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005427713140266324</v>
+        <v>0.001632163400984813</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1200.125562767422</v>
+        <v>1051.702861448285</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03207618392661624</v>
+        <v>0.1101423936008694</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>279.5045010856447</v>
+        <v>306.9694869810853</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1527780244256728</v>
+        <v>0.1650514808187862</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1112.597423948443</v>
+        <v>-1592.922092187868</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007206115642285581</v>
+        <v>0.0009878054590316346</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-21.69822006660222</v>
+        <v>-22.47220682775311</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2601980112095164</v>
+        <v>0.3126091686128291</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1552.352215938432</v>
+        <v>-1563.466042585134</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0007566054107454745</v>
+        <v>0.002623445531857104</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>180.7809816699397</v>
+        <v>519.1475101775133</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5350472629819452</v>
+        <v>0.123345046944804</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02105607233364339</v>
+        <v>-0.003008143378969604</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9586500095559287</v>
+        <v>0.9945021023844982</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0003334279444601797</v>
+        <v>1.934470969984197e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.12532655341921</v>
+        <v>0.9391339865041128</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82.19490420502984</v>
+        <v>214.7684833046717</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2876355630922413</v>
+        <v>0.01714444944597703</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.38556944806368</v>
+        <v>18.57488323374207</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4794341002170096</v>
+        <v>0.3984010648795961</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-5009.537661322604</v>
+        <v>-5788.954181559149</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0642163183253309</v>
+        <v>0.08073725888731018</v>
       </c>
     </row>
     <row r="19">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1501.94566979091</v>
+        <v>-6603.653778998107</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7651174479975907</v>
+        <v>0.2191718067391458</v>
       </c>
     </row>
   </sheetData>
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8577.821832189406</v>
+        <v>2347.978373767554</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03683737308227929</v>
+        <v>0.6244212587172213</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1473.710480079187</v>
+        <v>-2816.791030901462</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4562427523225884</v>
+        <v>0.2057301564070772</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-372.7454034897806</v>
+        <v>-1470.502241568917</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6779471062716379</v>
+        <v>0.1694096605142505</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1293.290150337511</v>
+        <v>-2083.756602694337</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00358704039170151</v>
+        <v>4.370184614079058e-05</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>583.0918412074782</v>
+        <v>1164.689212414838</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2796531787177163</v>
+        <v>0.0607617955952147</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1933.894904118673</v>
+        <v>2322.437868181384</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001767193206828158</v>
+        <v>0.001020096634005739</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1103.008764087156</v>
+        <v>1659.182791772772</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04544156602357875</v>
+        <v>0.01005881039664212</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>154.2095185200812</v>
+        <v>323.5733751307584</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4154281976252272</v>
+        <v>0.1410919330390043</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1046.451988248325</v>
+        <v>-1832.620586524239</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01002020178252964</v>
+        <v>0.0001075395057275092</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-10.07413769165111</v>
+        <v>-18.29207729667999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.593887047438456</v>
+        <v>0.3961254359729699</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1133.266230972839</v>
+        <v>-1194.049306155752</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01370682866143962</v>
+        <v>0.0210337785579342</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>508.9734590128601</v>
+        <v>780.7866820766869</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07236267274828073</v>
+        <v>0.01926270220285172</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02493489579236515</v>
+        <v>0.1054522059638678</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9502317545922755</v>
+        <v>0.8060276465056949</v>
       </c>
     </row>
     <row r="15">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.703058189082469e-05</v>
+        <v>0.000137849054868755</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6464890213566848</v>
+        <v>0.5791610980437433</v>
       </c>
     </row>
     <row r="16">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>87.92318310030525</v>
+        <v>233.7299072200921</v>
       </c>
       <c r="C16" t="n">
-        <v>0.245890960458778</v>
+        <v>0.00814857699448172</v>
       </c>
     </row>
     <row r="17">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-11.88403734182437</v>
+        <v>1.622638181804737</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5282056177438212</v>
+        <v>0.9407610052553991</v>
       </c>
     </row>
     <row r="18">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6528.404220412567</v>
+        <v>-3814.921099240896</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0128934402148446</v>
+        <v>0.2436653451065891</v>
       </c>
     </row>
     <row r="19">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3365.082228765144</v>
+        <v>-9044.468037083503</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4962997363157453</v>
+        <v>0.09151907368785522</v>
       </c>
     </row>
   </sheetData>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5781.757433646508</v>
+        <v>10584.87766839312</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1812731981399391</v>
+        <v>0.02771769328798847</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1602.930256636392</v>
+        <v>-2471.896265481303</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4262406879139368</v>
+        <v>0.2383020750430214</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-512.288273340444</v>
+        <v>-1347.23226615565</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5856286406325122</v>
+        <v>0.1779152471296477</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1650.010393624917</v>
+        <v>-1982.361049771068</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004516622817772354</v>
+        <v>7.260927893277107e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>446.737177574304</v>
+        <v>883.250548918561</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4347587155466217</v>
+        <v>0.1465290316467551</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1863.987802584035</v>
+        <v>1739.219030033006</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004399213072325297</v>
+        <v>0.01229204998396936</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1184.315207157332</v>
+        <v>821.3102019424917</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04361542548334415</v>
+        <v>0.1894742032000915</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>335.8953744476154</v>
+        <v>344.275167297293</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09981013758577087</v>
+        <v>0.1136110992728659</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1322.091075178644</v>
+        <v>-1765.217086045723</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002212264729129712</v>
+        <v>0.0001217724196501817</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-16.01680868127599</v>
+        <v>-34.04085640310375</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4169030686842038</v>
+        <v>0.1167410710980427</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1245.345225505792</v>
+        <v>-1242.887021102924</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008321536066609387</v>
+        <v>0.01695384804772701</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>310.8645051115699</v>
+        <v>308.2816797919631</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3010997210263038</v>
+        <v>0.3400432148959535</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02892140110857033</v>
+        <v>-0.3278287570144967</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9450993887005833</v>
+        <v>0.440019417016432</v>
       </c>
     </row>
     <row r="15">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0001559525036049922</v>
+        <v>-0.0001743568977608399</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4863848322416062</v>
+        <v>0.4760713777587691</v>
       </c>
     </row>
     <row r="16">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>111.6945145773183</v>
+        <v>93.651433489726</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1622321644856726</v>
+        <v>0.2805809175298126</v>
       </c>
     </row>
     <row r="17">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16.41586961826314</v>
+        <v>-0.02197273687698598</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4053130371212175</v>
+        <v>0.9991718267468686</v>
       </c>
     </row>
     <row r="18">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-5163.469104291609</v>
+        <v>-2856.981403818724</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06654956517239081</v>
+        <v>0.3795376035268836</v>
       </c>
     </row>
     <row r="19">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4110.62986242688</v>
+        <v>-1149.263013436027</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4262092578805073</v>
+        <v>0.8243029717526756</v>
       </c>
     </row>
   </sheetData>
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7809.002144441183</v>
+        <v>7639.666552123118</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07025999957599494</v>
+        <v>0.1135250583461763</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1101.315644563982</v>
+        <v>-2522.389135474087</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6066296937062701</v>
+        <v>0.2378812378058694</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-439.4855178133945</v>
+        <v>-1259.097212402523</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6247787709641095</v>
+        <v>0.2296539361413751</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1196.89859732406</v>
+        <v>-2107.230491902008</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009883649572731631</v>
+        <v>3.147650998639531e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>413.762321921245</v>
+        <v>1365.002031892391</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4600051902028034</v>
+        <v>0.02702334318266944</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2003.383051782556</v>
+        <v>2563.63323252047</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001740274995716771</v>
+        <v>0.000273239712457512</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1303.674161657385</v>
+        <v>1348.248039667601</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02272319310682748</v>
+        <v>0.0357002279055726</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>243.856728126827</v>
+        <v>366.8338439320077</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2284296567540914</v>
+        <v>0.09218679061263697</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1173.536751977875</v>
+        <v>-1947.605451651703</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005630886313933162</v>
+        <v>3.406581093593241e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9.986408735596982</v>
+        <v>-22.5423902370819</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6060762244849753</v>
+        <v>0.3016344434688655</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1380.028214391425</v>
+        <v>-1191.149689577868</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003117521591736036</v>
+        <v>0.02024109634147912</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>466.4050416355832</v>
+        <v>502.5490873322841</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1148092861954517</v>
+        <v>0.1264291742267702</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.08076073898597505</v>
+        <v>0.1114379022959001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8456682146065873</v>
+        <v>0.7970177293505782</v>
       </c>
     </row>
     <row r="15">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0002159956838270393</v>
+        <v>-0.0001006338494289441</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3305291666360066</v>
+        <v>0.680147755148572</v>
       </c>
     </row>
     <row r="16">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.84833379335534</v>
+        <v>112.5471273792837</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3253934296924156</v>
+        <v>0.1962030775786021</v>
       </c>
     </row>
     <row r="17">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.06894853946941737</v>
+        <v>-2.412181692414563</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9971355047118728</v>
+        <v>0.9095656440878535</v>
       </c>
     </row>
     <row r="18">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4915.602041749682</v>
+        <v>-3466.007703657114</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07465879485389476</v>
+        <v>0.2908789513965768</v>
       </c>
     </row>
     <row r="19">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-2632.346262035956</v>
+        <v>-4543.897656180614</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6091097403706472</v>
+        <v>0.4043991159563632</v>
       </c>
     </row>
   </sheetData>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8137.691034060221</v>
+        <v>9747.518386590542</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05774116673336183</v>
+        <v>0.04469408989279773</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1388.511645660768</v>
+        <v>-2699.675246866002</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5196320528210984</v>
+        <v>0.2329130838459439</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-945.2885077735955</v>
+        <v>-906.7640642189805</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2916098926422174</v>
+        <v>0.3904846592697977</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1857.968101961236</v>
+        <v>-2661.772953463211</v>
       </c>
       <c r="C5" t="n">
-        <v>7.086785731425996e-05</v>
+        <v>3.081781036451147e-07</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>605.8209632032672</v>
+        <v>1427.358663169534</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2788348422101458</v>
+        <v>0.02498067996799916</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1984.599529477993</v>
+        <v>2448.512207919578</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002342705873431418</v>
+        <v>0.0006457787372653214</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1264.246298092919</v>
+        <v>1288.917935268365</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02904344316094445</v>
+        <v>0.04963133037651582</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>188.7170282363977</v>
+        <v>272.317230985191</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3516071649717505</v>
+        <v>0.2288380092450551</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1141.562308658765</v>
+        <v>-1968.82952174753</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00757970795443317</v>
+        <v>4.267149751501897e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-23.81868307314423</v>
+        <v>-22.16672078719304</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2224856315731687</v>
+        <v>0.3087917280350997</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1628.456759106652</v>
+        <v>-1225.407480975534</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005819871105734622</v>
+        <v>0.01831309170842772</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>243.6495713022661</v>
+        <v>489.6426943953707</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4146894509853084</v>
+        <v>0.1508304590894099</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1416240301699313</v>
+        <v>-0.1276023125064872</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7359394135050071</v>
+        <v>0.7716113281875583</v>
       </c>
     </row>
     <row r="15">
@@ -1715,10 +1715,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0002690455625638737</v>
+        <v>-9.395762953844744e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2246332693618334</v>
+        <v>0.7075086153833745</v>
       </c>
     </row>
     <row r="16">
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>104.5393392052434</v>
+        <v>121.6029629581403</v>
       </c>
       <c r="C16" t="n">
-        <v>0.184887979402752</v>
+        <v>0.170776101804221</v>
       </c>
     </row>
     <row r="17">
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15.34470776422359</v>
+        <v>-11.27576514383195</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4343178313475314</v>
+        <v>0.6107240647284622</v>
       </c>
     </row>
     <row r="18">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6300.507160572923</v>
+        <v>-3939.100764751617</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0235310546949387</v>
+        <v>0.2390164342374156</v>
       </c>
     </row>
     <row r="19">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5544.7916428396</v>
+        <v>-2265.421405738196</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2745746490118433</v>
+        <v>0.6785386499489181</v>
       </c>
     </row>
   </sheetData>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4251.625487266682</v>
+        <v>5155.27145844906</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3385525299051692</v>
+        <v>0.2809369144317654</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1547.623815127086</v>
+        <v>-3155.213099512167</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4273984359393527</v>
+        <v>0.2008901226876451</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-594.6633480034039</v>
+        <v>-389.5948604154562</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5339250983767361</v>
+        <v>0.7124704770558611</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1410.495157114398</v>
+        <v>-2281.916892952964</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002803634105154529</v>
+        <v>5.595480279800801e-06</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>632.3063207684205</v>
+        <v>1579.223291626679</v>
       </c>
       <c r="C6" t="n">
-        <v>0.269498476270864</v>
+        <v>0.01075394212552759</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2211.521653558127</v>
+        <v>2927.326451581928</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0008064405194941323</v>
+        <v>4.25162547789419e-05</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1361.553705492718</v>
+        <v>1515.003303610728</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01901974758910658</v>
+        <v>0.01672036361640638</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>244.6464641178209</v>
+        <v>418.2498248708632</v>
       </c>
       <c r="C9" t="n">
-        <v>0.228168364849938</v>
+        <v>0.05357236706931625</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1413.656076911348</v>
+        <v>-1905.85249262813</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001083148042120885</v>
+        <v>4.299358844987594e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-18.9558404558758</v>
+        <v>-33.65353512746159</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3463998560963544</v>
+        <v>0.1137665639115427</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1636.509349426414</v>
+        <v>-972.8516190689899</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006773921223645955</v>
+        <v>0.05480723256105302</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>232.6947889377099</v>
+        <v>482.9021405584206</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4417493636205759</v>
+        <v>0.1400412340771875</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1972,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1392555971877281</v>
+        <v>-0.02961821172542747</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7430654996247079</v>
+        <v>0.9451911915081195</v>
       </c>
     </row>
     <row r="15">
@@ -1985,10 +1985,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0002072116476821311</v>
+        <v>5.543032701929927e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3596160305631506</v>
+        <v>0.9819992914449167</v>
       </c>
     </row>
     <row r="16">
@@ -1998,10 +1998,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>158.1702517697078</v>
+        <v>135.0879441320732</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05328355838461099</v>
+        <v>0.1225032442208016</v>
       </c>
     </row>
     <row r="17">
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>28.70483890090009</v>
+        <v>10.17123457341338</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1543337567090527</v>
+        <v>0.6338973462369937</v>
       </c>
     </row>
     <row r="18">
@@ -2024,10 +2024,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4910.33469908783</v>
+        <v>-3544.913062422255</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07863030937975803</v>
+        <v>0.2669427132493543</v>
       </c>
     </row>
     <row r="19">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3694.07543358999</v>
+        <v>-3304.942842149312</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4834938904963986</v>
+        <v>0.5324976967835566</v>
       </c>
     </row>
   </sheetData>
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5841.406615891998</v>
+        <v>7868.57145930206</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1602075371751708</v>
+        <v>0.1026408574180316</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-823.9305004449831</v>
+        <v>-1871.687721048149</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6837496330068651</v>
+        <v>0.435794860460498</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-393.6752120470833</v>
+        <v>-1213.603099943142</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6640449919753327</v>
+        <v>0.227573897824991</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1525.094265983046</v>
+        <v>-2557.869688376694</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0008301865317601436</v>
+        <v>8.173833805597627e-07</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1033.829972487556</v>
+        <v>1247.648718720995</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06060268522396045</v>
+        <v>0.04830921811684735</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1903.589283616879</v>
+        <v>1952.996136980438</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002712110077140448</v>
+        <v>0.005642080130642925</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1382.964329494181</v>
+        <v>1376.054687865987</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01401337723906774</v>
+        <v>0.03303053446928567</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>207.9381726559637</v>
+        <v>265.326088755331</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2985195485671835</v>
+        <v>0.2329943249989603</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1115.840991710611</v>
+        <v>-1656.89432842269</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007481198106987679</v>
+        <v>0.0004749567827624881</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-15.70658890536563</v>
+        <v>-30.95137453757904</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4204115406133971</v>
+        <v>0.1535459962533709</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1490.52652573105</v>
+        <v>-1339.44698667989</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001341021101156146</v>
+        <v>0.008090221848458753</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>329.1311868112701</v>
+        <v>318.8992753404328</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2586800462994458</v>
+        <v>0.3349063124544385</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2242,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04432803767210525</v>
+        <v>-0.02463993493473371</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9143853448750592</v>
+        <v>0.954541940237962</v>
       </c>
     </row>
     <row r="15">
@@ -2255,10 +2255,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0001938465487320502</v>
+        <v>-8.305767775612267e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3737856399263672</v>
+        <v>0.7367594820400667</v>
       </c>
     </row>
     <row r="16">
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.9893237825365</v>
+        <v>174.9019070780887</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1123835490903625</v>
+        <v>0.04644010122626445</v>
       </c>
     </row>
     <row r="17">
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11.77693528052823</v>
+        <v>2.416825874531577</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5374050865123254</v>
+        <v>0.9111978692367076</v>
       </c>
     </row>
     <row r="18">
@@ -2294,10 +2294,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4357.160017890836</v>
+        <v>-5719.746538181918</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1161441448879837</v>
+        <v>0.07881939851649249</v>
       </c>
     </row>
     <row r="19">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4340.263744234282</v>
+        <v>-4946.659736007587</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3962480560211175</v>
+        <v>0.3539131428062666</v>
       </c>
     </row>
   </sheetData>
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7715.41475093814</v>
+        <v>7922.24422920424</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07383422293982915</v>
+        <v>0.1093839294185672</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1792.564787170033</v>
+        <v>-2698.137779167495</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3799385696373798</v>
+        <v>0.2186149942144655</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-531.4815323208679</v>
+        <v>-1306.483059869948</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5712683855685</v>
+        <v>0.2161759495419834</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1368.637487821047</v>
+        <v>-2650.848001879147</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002840435648463143</v>
+        <v>3.935898969314113e-07</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>377.8607793662068</v>
+        <v>883.3196231832245</v>
       </c>
       <c r="C6" t="n">
-        <v>0.494922390461244</v>
+        <v>0.1648436952264664</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1474.02087517243</v>
+        <v>2430.407230839934</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02037677526892015</v>
+        <v>0.0009283995154324759</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1093.152540866168</v>
+        <v>1187.797051214394</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05629302487037938</v>
+        <v>0.06874810224995302</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>119.3591633079554</v>
+        <v>149.5081325844598</v>
       </c>
       <c r="C9" t="n">
-        <v>0.554871664572736</v>
+        <v>0.5161156851231061</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1130.423597849805</v>
+        <v>-2088.442979064633</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007091788565239925</v>
+        <v>1.434535619873961e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-17.85727827644187</v>
+        <v>-28.51833681952976</v>
       </c>
       <c r="C11" t="n">
-        <v>0.357307590743257</v>
+        <v>0.1998932014370375</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2486,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1765.772621996006</v>
+        <v>-1366.055258348507</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001531814791694601</v>
+        <v>0.008740863419902151</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>349.6096036814214</v>
+        <v>382.5784246052486</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2432236201507423</v>
+        <v>0.2525757839709731</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1243459933581866</v>
+        <v>-0.0003228853237693952</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7607956047318686</v>
+        <v>0.9994090421504662</v>
       </c>
     </row>
     <row r="15">
@@ -2525,10 +2525,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0001648883489974994</v>
+        <v>-0.0001720324286456534</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4600343164819151</v>
+        <v>0.4962949700530067</v>
       </c>
     </row>
     <row r="16">
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.4057460982872</v>
+        <v>142.6241942117967</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09059160469863621</v>
+        <v>0.1131344787933144</v>
       </c>
     </row>
     <row r="17">
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.663540610785113</v>
+        <v>14.56439619834562</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7707320783084671</v>
+        <v>0.507796738943044</v>
       </c>
     </row>
     <row r="18">
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6274.056336291308</v>
+        <v>-5194.4300901546</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02215114397032235</v>
+        <v>0.1150478365249287</v>
       </c>
     </row>
     <row r="19">
@@ -2577,10 +2577,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1689.171000561326</v>
+        <v>-5025.192264764095</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7407105484415393</v>
+        <v>0.3450119782254361</v>
       </c>
     </row>
   </sheetData>
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8855.533210685879</v>
+        <v>8375.325747766505</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02923391033948664</v>
+        <v>0.08081703436888313</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2618.745139182293</v>
+        <v>-3132.193838402571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1652098544272037</v>
+        <v>0.2087936571428306</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1133.682147038695</v>
+        <v>-377.0691123075238</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1954122910864511</v>
+        <v>0.7161643955446078</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1630.400562713445</v>
+        <v>-2217.46284612756</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002337309910517127</v>
+        <v>1.508457597558116e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>669.5389472284101</v>
+        <v>894.7129057740758</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2080873635261836</v>
+        <v>0.1485051671982903</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2283.820594789311</v>
+        <v>2218.414230601044</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00017581419078458</v>
+        <v>0.001748801307054417</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>757.7863881969751</v>
+        <v>1164.087323862138</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1673909594647718</v>
+        <v>0.06935274050918125</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>406.4365999209467</v>
+        <v>244.1315791600235</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03233896945562627</v>
+        <v>0.2751353560233243</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1357.336573983889</v>
+        <v>-1651.333695318197</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0007577045948528788</v>
+        <v>0.0004596635651642519</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-11.15190818117957</v>
+        <v>-37.48880872115761</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5482868927981071</v>
+        <v>0.08316480895710325</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1369.663564510649</v>
+        <v>-1442.42513175143</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002027776380626766</v>
+        <v>0.005095095446331495</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2769,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>305.7612474051001</v>
+        <v>492.3244933080304</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2767864893036416</v>
+        <v>0.1357596164654445</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1343283538418547</v>
+        <v>0.01488460559332294</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7349713762935868</v>
+        <v>0.9721016283610865</v>
       </c>
     </row>
     <row r="15">
@@ -2795,10 +2795,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0001641131556826913</v>
+        <v>-0.0001267986786362607</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4319331593239319</v>
+        <v>0.6050333540726537</v>
       </c>
     </row>
     <row r="16">
@@ -2808,10 +2808,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>94.55954661563965</v>
+        <v>119.6094302906678</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2036237732077746</v>
+        <v>0.172781883676519</v>
       </c>
     </row>
     <row r="17">
@@ -2821,10 +2821,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-8.289396092952718</v>
+        <v>8.126746969703992</v>
       </c>
       <c r="C17" t="n">
-        <v>0.650697407251933</v>
+        <v>0.7072832642039195</v>
       </c>
     </row>
     <row r="18">
@@ -2834,10 +2834,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4868.158751318987</v>
+        <v>-5661.040507010335</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06796285195892664</v>
+        <v>0.08016362874764017</v>
       </c>
     </row>
     <row r="19">
@@ -2847,10 +2847,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1626.250464020733</v>
+        <v>-3189.978926232979</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7365400290708617</v>
+        <v>0.5446653946995601</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Magdeburg.xlsx
+++ b/outputs/ML_Results/dist_commute/Magdeburg.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ29540111" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ29759883" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ30013367" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ30249420" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ30500742" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ30736725" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ30989494" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ31225691" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ31483881" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ11702297" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ11938865" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ12184397" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ12418467" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ12666321" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ12901386" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ13151380" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ13417839" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ13681772" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_commute/Magdeburg.xlsx
+++ b/outputs/ML_Results/dist_commute/Magdeburg.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ11702297" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ11938865" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ12184397" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ12418467" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ12666321" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ12901386" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ13151380" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ13417839" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ13681772" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ18870467" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ19070061" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ19307139" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ19555897" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ19806423" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ20110149" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ20391232" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ20655018" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ20941665" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3566.700175024885</v>
+        <v>12808.23867797363</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4683625448803139</v>
+        <v>2.659802800424689e-05</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2974.967040691957</v>
+        <v>-2559.070028980717</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2089000960267269</v>
+        <v>0.2793320409988095</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1032.262441544088</v>
+        <v>-944.573583664191</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3181187817527188</v>
+        <v>0.361595373603929</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2268.692453880215</v>
+        <v>-2271.811108047717</v>
       </c>
       <c r="C5" t="n">
-        <v>1.587250968482977e-05</v>
+        <v>1.605696653162453e-05</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>942.509602858724</v>
+        <v>928.4776073022809</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1402056709600592</v>
+        <v>0.1469802395721717</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2340.113584179778</v>
+        <v>2375.549561373093</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001632163400984813</v>
+        <v>0.001413149378160998</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1051.702861448285</v>
+        <v>1092.926788474974</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1101423936008694</v>
+        <v>0.09743875510898115</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>306.9694869810853</v>
+        <v>307.5894160899394</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1650514808187862</v>
+        <v>0.1650336746575275</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1592.922092187868</v>
+        <v>-1627.326503589483</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0009878054590316346</v>
+        <v>0.0007803450945282537</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-22.47220682775311</v>
+        <v>-23.68705656837717</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3126091686128291</v>
+        <v>0.2880075888047529</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1563.466042585134</v>
+        <v>-1145.070239209315</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002623445531857104</v>
+        <v>0.01935899445639873</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>519.1475101775133</v>
+        <v>187.9321071508834</v>
       </c>
       <c r="C13" t="n">
-        <v>0.123345046944804</v>
+        <v>0.5410225301824505</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.003008143378969604</v>
+        <v>0.05286665270343111</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9945021023844982</v>
+        <v>0.9036637147197786</v>
       </c>
     </row>
     <row r="15">
@@ -635,62 +635,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.934470969984197e-05</v>
+        <v>-0.0004414604371741721</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9391339865041128</v>
+        <v>0.007309850502454376</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>214.7684833046717</v>
+        <v>8.607312386942453</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01714444944597703</v>
+        <v>0.6907534993794466</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>18.57488323374207</v>
+        <v>-4119.279580490018</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3984010648795961</v>
+        <v>0.204344890216414</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-5788.954181559149</v>
+        <v>-1760.91393078326</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08073725888731018</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-6603.653778998107</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.2191718067391458</v>
+        <v>0.7238881426505812</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2347.978373767554</v>
+        <v>12352.96153791678</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6244212587172213</v>
+        <v>3.286560269677759e-05</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2816.791030901462</v>
+        <v>-2553.349470226194</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2057301564070772</v>
+        <v>0.2520603231019477</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1470.502241568917</v>
+        <v>-1301.458985192065</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1694096605142505</v>
+        <v>0.2242388859153779</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2083.756602694337</v>
+        <v>-2096.797343584082</v>
       </c>
       <c r="C5" t="n">
-        <v>4.370184614079058e-05</v>
+        <v>4.091469949521138e-05</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1164.689212414838</v>
+        <v>1124.210068847339</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0607617955952147</v>
+        <v>0.07090009443792084</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2322.437868181384</v>
+        <v>2313.477384392853</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001020096634005739</v>
+        <v>0.001098085644691364</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1659.182791772772</v>
+        <v>1652.700749255744</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01005881039664212</v>
+        <v>0.01054800578933843</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>323.5733751307584</v>
+        <v>337.7847785509915</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1410919330390043</v>
+        <v>0.1253037552305064</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1832.620586524239</v>
+        <v>-1822.881032755494</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001075395057275092</v>
+        <v>0.0001215864023608159</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-18.29207729667999</v>
+        <v>-18.00389555195844</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3961254359729699</v>
+        <v>0.4047911407218625</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1194.049306155752</v>
+        <v>-742.5223430795654</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0210337785579342</v>
+        <v>0.1292850975460205</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>780.7866820766869</v>
+        <v>414.8632769530716</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01926270220285172</v>
+        <v>0.172567691614612</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1054522059638678</v>
+        <v>0.1488835084728256</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8060276465056949</v>
+        <v>0.7292992970269895</v>
       </c>
     </row>
     <row r="15">
@@ -905,62 +892,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.000137849054868755</v>
+        <v>-0.0003638387715003534</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5791610980437433</v>
+        <v>0.0243431583830255</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>233.7299072200921</v>
+        <v>-9.478829620792251</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00814857699448172</v>
+        <v>0.6590735894443307</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.622638181804737</v>
+        <v>-1964.720221770156</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9407610052553991</v>
+        <v>0.5397619363423802</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3814.921099240896</v>
+        <v>-3500.874090108269</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2436653451065891</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-9044.468037083503</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.09151907368785522</v>
+        <v>0.4789014963863309</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10584.87766839312</v>
+        <v>14683.91299247396</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02771769328798847</v>
+        <v>6.827611515376513e-07</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2471.896265481303</v>
+        <v>-2380.518612004907</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2383020750430214</v>
+        <v>0.2557382445833626</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1347.23226615565</v>
+        <v>-1310.687429224797</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1779152471296477</v>
+        <v>0.1897409090518009</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1982.361049771068</v>
+        <v>-1971.370592697936</v>
       </c>
       <c r="C5" t="n">
-        <v>7.260927893277107e-05</v>
+        <v>7.93762903751154e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>883.250548918561</v>
+        <v>873.1968024080975</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1465290316467551</v>
+        <v>0.1511565045881892</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1739.219030033006</v>
+        <v>1726.938139797232</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01229204998396936</v>
+        <v>0.01291230767174714</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>821.3102019424917</v>
+        <v>812.4577706442954</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1894742032000915</v>
+        <v>0.1942786913356958</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>344.275167297293</v>
+        <v>354.0609410625495</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1136110992728659</v>
+        <v>0.1034415829240312</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1765.217086045723</v>
+        <v>-1783.065840174254</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001217724196501817</v>
+        <v>0.0001030068405018813</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-34.04085640310375</v>
+        <v>-33.28071290563445</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1167410710980427</v>
+        <v>0.1249532505378243</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1242.887021102924</v>
+        <v>-1072.808592155062</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01695384804772701</v>
+        <v>0.03053923298237533</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>308.2816797919631</v>
+        <v>166.729775111769</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3400432148959535</v>
+        <v>0.5723081006382313</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.3278287570144967</v>
+        <v>-0.3003781615242058</v>
       </c>
       <c r="C14" t="n">
-        <v>0.440019417016432</v>
+        <v>0.4784845544736097</v>
       </c>
     </row>
     <row r="15">
@@ -1175,62 +1149,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0001743568977608399</v>
+        <v>-0.0003753345213572596</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4760713777587691</v>
+        <v>0.01814046327525849</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.651433489726</v>
+        <v>-5.288700481423902</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2805809175298126</v>
+        <v>0.79739182122649</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02197273687698598</v>
+        <v>-2225.358048170161</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991718267468686</v>
+        <v>0.486530330772964</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2856.981403818724</v>
+        <v>930.060184982015</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3795376035268836</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-1149.263013436027</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.8243029717526756</v>
+        <v>0.8465189539825885</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7639.666552123118</v>
+        <v>12585.22343564352</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1135250583461763</v>
+        <v>2.025542029842237e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2522.389135474087</v>
+        <v>-2418.836831693283</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2378812378058694</v>
+        <v>0.2574888569881934</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1259.097212402523</v>
+        <v>-1215.646799865993</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2296539361413751</v>
+        <v>0.2460125260446541</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2107.230491902008</v>
+        <v>-2102.990411541321</v>
       </c>
       <c r="C5" t="n">
-        <v>3.147650998639531e-05</v>
+        <v>3.279587621830034e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1365.002031892391</v>
+        <v>1350.741621299285</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02702334318266944</v>
+        <v>0.02867983155740039</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2563.63323252047</v>
+        <v>2554.062109721608</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000273239712457512</v>
+        <v>0.0002888409579937437</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1348.248039667601</v>
+        <v>1358.096017030439</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0357002279055726</v>
+        <v>0.03441370458216002</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>366.8338439320077</v>
+        <v>364.8918583841086</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09218679061263697</v>
+        <v>0.09400563008146978</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1947.605451651703</v>
+        <v>-1965.55354805817</v>
       </c>
       <c r="C10" t="n">
-        <v>3.406581093593241e-05</v>
+        <v>2.876777462577114e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-22.5423902370819</v>
+        <v>-22.6831618260379</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3016344434688655</v>
+        <v>0.2987576714713084</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1191.149689577868</v>
+        <v>-976.5908133431076</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02024109634147912</v>
+        <v>0.04421424535562058</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>502.5490873322841</v>
+        <v>317.7078793990254</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1264291742267702</v>
+        <v>0.2832668886390953</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1114379022959001</v>
+        <v>0.1120939227635945</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7970177293505782</v>
+        <v>0.7959055622137524</v>
       </c>
     </row>
     <row r="15">
@@ -1445,62 +1406,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0001006338494289441</v>
+        <v>-0.0003409939817865762</v>
       </c>
       <c r="C15" t="n">
-        <v>0.680147755148572</v>
+        <v>0.03131373230746205</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.5471273792837</v>
+        <v>-8.067031595502108</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1962030775786021</v>
+        <v>0.6979665608793035</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.412181692414563</v>
+        <v>-2551.956768468329</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9095656440878535</v>
+        <v>0.4259030919911425</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3466.007703657114</v>
+        <v>-1627.760278485721</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2908789513965768</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-4543.897656180614</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4043991159563632</v>
+        <v>0.7428609659589007</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9747.518386590542</v>
+        <v>14976.83751007424</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04469408989279773</v>
+        <v>6.615937422333735e-07</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2699.675246866002</v>
+        <v>-2605.726866299457</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2329130838459439</v>
+        <v>0.2495253052743721</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-906.7640642189805</v>
+        <v>-853.3492153519297</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3904846592697977</v>
+        <v>0.4188489207205278</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2661.772953463211</v>
+        <v>-2655.691461464918</v>
       </c>
       <c r="C5" t="n">
-        <v>3.081781036451147e-07</v>
+        <v>3.305290786827475e-07</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1427.358663169534</v>
+        <v>1424.47937879052</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02498067996799916</v>
+        <v>0.02532702736801572</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2448.512207919578</v>
+        <v>2432.699782590814</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0006457787372653214</v>
+        <v>0.0007017523730439184</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1288.917935268365</v>
+        <v>1295.898159696663</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04963133037651582</v>
+        <v>0.04848710659642237</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>272.317230985191</v>
+        <v>281.7987052119261</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2288380092450551</v>
+        <v>0.2130025984934874</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1968.82952174753</v>
+        <v>-1971.008112256972</v>
       </c>
       <c r="C10" t="n">
-        <v>4.267149751501897e-05</v>
+        <v>4.211763906314035e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-22.16672078719304</v>
+        <v>-22.04908916422491</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3087917280350997</v>
+        <v>0.3115399403915193</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1225.407480975534</v>
+        <v>-999.2407769670076</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01831309170842772</v>
+        <v>0.04244775550434617</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>489.6426943953707</v>
+        <v>284.7216755225961</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1508304590894099</v>
+        <v>0.3525649144942996</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1276023125064872</v>
+        <v>-0.1167752583184635</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7716113281875583</v>
+        <v>0.7905595135774606</v>
       </c>
     </row>
     <row r="15">
@@ -1715,62 +1663,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.395762953844744e-05</v>
+        <v>-0.0003552803220960817</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7075086153833745</v>
+        <v>0.02879338184184035</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>121.6029629581403</v>
+        <v>-16.60359309353688</v>
       </c>
       <c r="C16" t="n">
-        <v>0.170776101804221</v>
+        <v>0.4466254573167053</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-11.27576514383195</v>
+        <v>-2989.986111844632</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6107240647284622</v>
+        <v>0.3610734084533339</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3939.100764751617</v>
+        <v>705.7828752100254</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2390164342374156</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-2265.421405738196</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.6785386499489181</v>
+        <v>0.8881717470325529</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5155.27145844906</v>
+        <v>10893.35122631164</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2809369144317654</v>
+        <v>0.000309295991799033</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3155.213099512167</v>
+        <v>-3098.445454916439</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2008901226876451</v>
+        <v>0.2093227918396172</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-389.5948604154562</v>
+        <v>-340.7439425411512</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7124704770558611</v>
+        <v>0.7472350033958747</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2281.916892952964</v>
+        <v>-2273.242734405806</v>
       </c>
       <c r="C5" t="n">
-        <v>5.595480279800801e-06</v>
+        <v>6.134784596456407e-06</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1579.223291626679</v>
+        <v>1554.369668808113</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01075394212552759</v>
+        <v>0.01207489138797482</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2927.326451581928</v>
+        <v>2910.007322052436</v>
       </c>
       <c r="C7" t="n">
-        <v>4.25162547789419e-05</v>
+        <v>4.752747963514279e-05</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1515.003303610728</v>
+        <v>1493.412774264227</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01672036361640638</v>
+        <v>0.01837457926984045</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>418.2498248708632</v>
+        <v>421.3193346629763</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05357236706931625</v>
+        <v>0.05197135716313904</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1905.85249262813</v>
+        <v>-1922.485980270766</v>
       </c>
       <c r="C10" t="n">
-        <v>4.299358844987594e-05</v>
+        <v>3.708265375737948e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-33.65353512746159</v>
+        <v>-34.17991210362507</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1137665639115427</v>
+        <v>0.1083912011882663</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-972.8516190689899</v>
+        <v>-715.4778364510862</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05480723256105302</v>
+        <v>0.1348545784833498</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>482.9021405584206</v>
+        <v>281.0845186482701</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1400412340771875</v>
+        <v>0.3489783552778827</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02961821172542747</v>
+        <v>0.009434453039951413</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9451911915081195</v>
+        <v>0.9825091591885106</v>
       </c>
     </row>
     <row r="15">
@@ -1985,62 +1920,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.543032701929927e-06</v>
+        <v>-0.0002852582061640981</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9819992914449167</v>
+        <v>0.07120189572057294</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>135.0879441320732</v>
+        <v>4.438379586385458</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1225032442208016</v>
+        <v>0.8329554373938974</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10.17123457341338</v>
+        <v>-2463.823365449985</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6338973462369937</v>
+        <v>0.4292702114347393</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3544.913062422255</v>
+        <v>-317.9231569073042</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2669427132493543</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-3304.942842149312</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5324976967835566</v>
+        <v>0.9485985987594578</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2086,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7868.57145930206</v>
+        <v>15423.96536704926</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1026408574180316</v>
+        <v>2.590158634078859e-07</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1871.687721048149</v>
+        <v>-1753.000158563128</v>
       </c>
       <c r="C3" t="n">
-        <v>0.435794860460498</v>
+        <v>0.4658674592570707</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1213.603099943142</v>
+        <v>-1140.252313526791</v>
       </c>
       <c r="C4" t="n">
-        <v>0.227573897824991</v>
+        <v>0.2571781795973725</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2557.869688376694</v>
+        <v>-2541.172417547295</v>
       </c>
       <c r="C5" t="n">
-        <v>8.173833805597627e-07</v>
+        <v>9.885645984035842e-07</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1247.648718720995</v>
+        <v>1252.255251208149</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04830921811684735</v>
+        <v>0.04776447666196571</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1952.996136980438</v>
+        <v>1957.42774960212</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005642080130642925</v>
+        <v>0.005593434910263418</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.054687865987</v>
+        <v>1396.950098104275</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03303053446928567</v>
+        <v>0.03064859652674013</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>265.326088755331</v>
+        <v>266.3426034431837</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2329943249989603</v>
+        <v>0.2317920863166696</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1656.89432842269</v>
+        <v>-1694.885950754962</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004749567827624881</v>
+        <v>0.0003533877288006479</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-30.95137453757904</v>
+        <v>-31.37854192744653</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1535459962533709</v>
+        <v>0.1484409440003642</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1339.44698667989</v>
+        <v>-1008.293457577871</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008090221848458753</v>
+        <v>0.03489553881302721</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>318.8992753404328</v>
+        <v>41.2321841579157</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3349063124544385</v>
+        <v>0.8907695712635875</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02463993493473371</v>
+        <v>0.005132992987776031</v>
       </c>
       <c r="C14" t="n">
-        <v>0.954541940237962</v>
+        <v>0.9905314497069981</v>
       </c>
     </row>
     <row r="15">
@@ -2255,62 +2177,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.305767775612267e-05</v>
+        <v>-0.0004597037132878762</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7367594820400667</v>
+        <v>0.003983378520081143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>174.9019070780887</v>
+        <v>-5.7631500173079</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04644010122626445</v>
+        <v>0.7867689475619357</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.416825874531577</v>
+        <v>-4309.574547999704</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9111978692367076</v>
+        <v>0.1752847697402421</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-5719.746538181918</v>
+        <v>-813.4395536251159</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07881939851649249</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-4946.659736007587</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3539131428062666</v>
+        <v>0.8687268035989492</v>
       </c>
     </row>
   </sheetData>
@@ -2324,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2356,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7922.24422920424</v>
+        <v>14111.3038670852</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1093839294185672</v>
+        <v>3.751378562764313e-06</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2698.137779167495</v>
+        <v>-2579.388095966865</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2186149942144655</v>
+        <v>0.2395766309204399</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1306.483059869948</v>
+        <v>-1261.774532293698</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2161759495419834</v>
+        <v>0.2324271725811793</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2650.848001879147</v>
+        <v>-2667.579963902154</v>
       </c>
       <c r="C5" t="n">
-        <v>3.935898969314113e-07</v>
+        <v>3.368869498332134e-07</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>883.3196231832245</v>
+        <v>864.8295849284771</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1648436952264664</v>
+        <v>0.1740590404254532</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2430.407230839934</v>
+        <v>2399.590944456356</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0009283995154324759</v>
+        <v>0.001080598695118966</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.797051214394</v>
+        <v>1183.911987424579</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06874810224995302</v>
+        <v>0.06983382910810321</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>149.5081325844598</v>
+        <v>147.4645250410674</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5161156851231061</v>
+        <v>0.5221253922261812</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2088.442979064633</v>
+        <v>-2111.347569613891</v>
       </c>
       <c r="C10" t="n">
-        <v>1.434535619873961e-05</v>
+        <v>1.160242316602651e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-28.51833681952976</v>
+        <v>-28.85511345672019</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1998932014370375</v>
+        <v>0.1949007332245671</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1366.055258348507</v>
+        <v>-1086.891486981111</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008740863419902151</v>
+        <v>0.0266495276262307</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>382.5784246052486</v>
+        <v>168.2000707119634</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2525757839709731</v>
+        <v>0.5824571328100148</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0003228853237693952</v>
+        <v>0.04514134702580061</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9994090421504662</v>
+        <v>0.9174020581904723</v>
       </c>
     </row>
     <row r="15">
@@ -2525,62 +2434,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0001720324286456534</v>
+        <v>-0.0004770178407132156</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4962949700530067</v>
+        <v>0.003719745742290953</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.6241942117967</v>
+        <v>7.389479046087577</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1131344787933144</v>
+        <v>0.7314686916949811</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14.56439619834562</v>
+        <v>-4104.642532993283</v>
       </c>
       <c r="C17" t="n">
-        <v>0.507796738943044</v>
+        <v>0.2031107774261028</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-5194.4300901546</v>
+        <v>-1912.385291865904</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1150478365249287</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-5025.192264764095</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3450119782254361</v>
+        <v>0.6991397039294782</v>
       </c>
     </row>
   </sheetData>
@@ -2594,7 +2490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2626,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8375.325747766505</v>
+        <v>13517.36166147364</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08081703436888313</v>
+        <v>5.523208289470193e-06</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3132.193838402571</v>
+        <v>-3096.151758296053</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2087936571428306</v>
+        <v>0.2142157725629014</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-377.0691123075238</v>
+        <v>-312.0746368783408</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7161643955446078</v>
+        <v>0.7633150581707417</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2217.46284612756</v>
+        <v>-2221.542060275992</v>
       </c>
       <c r="C5" t="n">
-        <v>1.508457597558116e-05</v>
+        <v>1.46505501053629e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>894.7129057740758</v>
+        <v>879.4380449934231</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1485051671982903</v>
+        <v>0.1556353731069618</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2218.414230601044</v>
+        <v>2218.978980222984</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001748801307054417</v>
+        <v>0.001750766593901704</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1164.087323862138</v>
+        <v>1177.335538153538</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06935274050918125</v>
+        <v>0.06631299299874444</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>244.1315791600235</v>
+        <v>241.2454417589646</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2751353560233243</v>
+        <v>0.2810001123072691</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1651.333695318197</v>
+        <v>-1685.017402070974</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004596635651642519</v>
+        <v>0.000346318647488339</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.48880872115761</v>
+        <v>-37.63849030035711</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08316480895710325</v>
+        <v>0.08204987637380086</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1442.42513175143</v>
+        <v>-1201.644708004167</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005095095446331495</v>
+        <v>0.01297501934109915</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>492.3244933080304</v>
+        <v>310.0531982375533</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1357596164654445</v>
+        <v>0.3041993420639777</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01488460559332294</v>
+        <v>0.04337936961336132</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9721016283610865</v>
+        <v>0.9187494488778994</v>
       </c>
     </row>
     <row r="15">
@@ -2795,62 +2691,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0001267986786362607</v>
+        <v>-0.0003790547206860213</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6050333540726537</v>
+        <v>0.01867357732817298</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>119.6094302906678</v>
+        <v>2.288672636395541</v>
       </c>
       <c r="C16" t="n">
-        <v>0.172781883676519</v>
+        <v>0.9141174954471885</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.126746969703992</v>
+        <v>-4697.724256474534</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7072832642039195</v>
+        <v>0.136841422203925</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-5661.040507010335</v>
+        <v>-461.8416160506374</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08016362874764017</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-3189.978926232979</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5446653946995601</v>
+        <v>0.9244866629561356</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Magdeburg.xlsx
+++ b/outputs/ML_Results/dist_commute/Magdeburg.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ18870467" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ19070061" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ19307139" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ19555897" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ19806423" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ20110149" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ20391232" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ20655018" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ20941665" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ33980019" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ34184923" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ34393969" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ34616438" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ34831471" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ35044546" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ35253200" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ35464369" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ35679534" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12808.23867797363</v>
+        <v>12808.23867902004</v>
       </c>
       <c r="C2" t="n">
-        <v>2.659802800424689e-05</v>
+        <v>2.659802796949618e-05</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2559.070028980717</v>
+        <v>-2559.070028885776</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2793320409988095</v>
+        <v>0.2793320409987722</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-944.573583664191</v>
+        <v>-944.5735834991993</v>
       </c>
       <c r="C4" t="n">
-        <v>0.361595373603929</v>
+        <v>0.3615953736833319</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2271.811108047717</v>
+        <v>-2271.811107776673</v>
       </c>
       <c r="C5" t="n">
-        <v>1.605696653162453e-05</v>
+        <v>1.605696654834687e-05</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>928.4776073022809</v>
+        <v>928.4776073619339</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1469802395721717</v>
+        <v>0.1469802395448887</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2375.549561373093</v>
+        <v>2375.549561467959</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001413149378160998</v>
+        <v>0.001413149377419175</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1092.926788474974</v>
+        <v>1092.926788518528</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09743875510898115</v>
+        <v>0.09743875509505411</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>307.5894160899394</v>
+        <v>307.5894160361045</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1650336746575275</v>
+        <v>0.1650336747307736</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1627.326503589483</v>
+        <v>-1627.326503476453</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0007803450945282537</v>
+        <v>0.0007803450951965831</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-23.68705656837717</v>
+        <v>-23.68705657588468</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2880075888047529</v>
+        <v>0.2880075886535834</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1145.070239209315</v>
+        <v>-1145.070239126297</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01935899445639873</v>
+        <v>0.01935899446613544</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>187.9321071508834</v>
+        <v>187.932107405222</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5410225301824505</v>
+        <v>0.5410225296437536</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05286665270343111</v>
+        <v>5.286665271800615</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9036637147197786</v>
+        <v>0.9036637146932595</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0004414604371741721</v>
+        <v>-441.4604374172735</v>
       </c>
       <c r="C15" t="n">
-        <v>0.007309850502454376</v>
+        <v>0.007309850467633401</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.607312386942453</v>
+        <v>8.607312386941782</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6907534993794466</v>
+        <v>0.6907534993794712</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4119.279580490018</v>
+        <v>-41.19279580489993</v>
       </c>
       <c r="C17" t="n">
-        <v>0.204344890216414</v>
+        <v>0.2043448902164172</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1760.91393078326</v>
+        <v>-17.60913930782978</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7238881426505812</v>
+        <v>0.7238881426506227</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12352.96153791678</v>
+        <v>12352.96153109609</v>
       </c>
       <c r="C2" t="n">
-        <v>3.286560269677759e-05</v>
+        <v>3.286560305947111e-05</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2553.349470226194</v>
+        <v>-2553.349470270508</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2520603231019477</v>
+        <v>0.2520603231019412</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1301.458985192065</v>
+        <v>-1301.458985337475</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2242388859153779</v>
+        <v>0.2242388858667307</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2096.797343584082</v>
+        <v>-2096.797343856657</v>
       </c>
       <c r="C5" t="n">
-        <v>4.091469949521138e-05</v>
+        <v>4.091469944377987e-05</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1124.210068847339</v>
+        <v>1124.210068670202</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07090009443792084</v>
+        <v>0.07090009448480179</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2313.477384392853</v>
+        <v>2313.477384356512</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001098085644691364</v>
+        <v>0.001098085644906785</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1652.700749255744</v>
+        <v>1652.700749170959</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01054800578933843</v>
+        <v>0.01054800579352393</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>337.7847785509915</v>
+        <v>337.7847785571092</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1253037552305064</v>
+        <v>0.1253037552239328</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1822.881032755494</v>
+        <v>-1822.881032874635</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001215864023608159</v>
+        <v>0.0001215864022296529</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-18.00389555195844</v>
+        <v>-18.00389555596917</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4047911407218625</v>
+        <v>0.4047911406172392</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-742.5223430795654</v>
+        <v>-742.5223417891143</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1292850975460205</v>
+        <v>0.1292850982645538</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.8632769530716</v>
+        <v>414.8632769744108</v>
       </c>
       <c r="C13" t="n">
-        <v>0.172567691614612</v>
+        <v>0.1725676915943312</v>
       </c>
     </row>
     <row r="14">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1488835084728256</v>
+        <v>14.88835084524202</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7292992970269895</v>
+        <v>0.7292992970626015</v>
       </c>
     </row>
     <row r="15">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0003638387715003534</v>
+        <v>-363.8387708197026</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0243431583830255</v>
+        <v>0.02434315866574933</v>
       </c>
     </row>
     <row r="16">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-9.478829620792251</v>
+        <v>-9.478829620792421</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6590735894443307</v>
+        <v>0.6590735894443265</v>
       </c>
     </row>
     <row r="17">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1964.720221770156</v>
+        <v>-19.64720221770102</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5397619363423802</v>
+        <v>0.5397619363423918</v>
       </c>
     </row>
     <row r="18">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3500.874090108269</v>
+        <v>-35.00874090107989</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4789014963863309</v>
+        <v>0.4789014963863651</v>
       </c>
     </row>
   </sheetData>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14683.91299247396</v>
+        <v>14683.91299316027</v>
       </c>
       <c r="C2" t="n">
-        <v>6.827611515376513e-07</v>
+        <v>6.827611506660475e-07</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2380.518612004907</v>
+        <v>-2380.51861269123</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2557382445833626</v>
+        <v>0.2557382445834325</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1310.687429224797</v>
+        <v>-1310.687429193532</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1897409090518009</v>
+        <v>0.1897409090616012</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1971.370592697936</v>
+        <v>-1971.370592700704</v>
       </c>
       <c r="C5" t="n">
-        <v>7.93762903751154e-05</v>
+        <v>7.937629037415859e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>873.1968024080975</v>
+        <v>873.1968023554294</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1511565045881892</v>
+        <v>0.1511565046137693</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1726.938139797232</v>
+        <v>1726.938139769644</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01291230767174714</v>
+        <v>0.01291230767329204</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>812.4577706442954</v>
+        <v>812.4577706141474</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1942786913356958</v>
+        <v>0.1942786913528374</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>354.0609410625495</v>
+        <v>354.0609411197956</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1034415829240312</v>
+        <v>0.1034415828697188</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1783.065840174254</v>
+        <v>-1783.065840213981</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001030068405018813</v>
+        <v>0.0001030068404636984</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-33.28071290563445</v>
+        <v>-33.28071290743328</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1249532505378243</v>
+        <v>0.1249532505177955</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1072.808592155062</v>
+        <v>-1072.808592170105</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03053923298237533</v>
+        <v>0.03053923297982308</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>166.729775111769</v>
+        <v>166.7297751565325</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5723081006382313</v>
+        <v>0.5723081005380478</v>
       </c>
     </row>
     <row r="14">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.3003781615242058</v>
+        <v>-30.03781615124232</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4784845544736097</v>
+        <v>0.4784845544909072</v>
       </c>
     </row>
     <row r="15">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0003753345213572596</v>
+        <v>-375.3345208630028</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01814046327525849</v>
+        <v>0.01814046342876955</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-5.288700481423902</v>
+        <v>-5.288700481423756</v>
       </c>
       <c r="C16" t="n">
-        <v>0.79739182122649</v>
+        <v>0.7973918212264957</v>
       </c>
     </row>
     <row r="17">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2225.358048170161</v>
+        <v>-22.2535804817015</v>
       </c>
       <c r="C17" t="n">
-        <v>0.486530330772964</v>
+        <v>0.4865303307729661</v>
       </c>
     </row>
     <row r="18">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>930.060184982015</v>
+        <v>9.300601849822044</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8465189539825885</v>
+        <v>0.8465189539825574</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12585.22343564352</v>
+        <v>12585.22343341163</v>
       </c>
       <c r="C2" t="n">
-        <v>2.025542029842237e-05</v>
+        <v>2.025542037115126e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2418.836831693283</v>
+        <v>-2418.83683214191</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2574888569881934</v>
+        <v>0.2574888569881196</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1215.646799865993</v>
+        <v>-1215.64679973853</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2460125260446541</v>
+        <v>0.2460125260911084</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2102.990411541321</v>
+        <v>-2102.990411413094</v>
       </c>
       <c r="C5" t="n">
-        <v>3.279587621830034e-05</v>
+        <v>3.279587623660025e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1350.741621299285</v>
+        <v>1350.74162133872</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02867983155740039</v>
+        <v>0.02867983155246165</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2554.062109721608</v>
+        <v>2554.062109633492</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002888409579937437</v>
+        <v>0.0002888409581484301</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1358.096017030439</v>
+        <v>1358.096016943512</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03441370458216002</v>
+        <v>0.03441370459424217</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>364.8918583841086</v>
+        <v>364.8918583691297</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09400563008146978</v>
+        <v>0.09400563009456862</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1965.55354805817</v>
+        <v>-1965.553547987801</v>
       </c>
       <c r="C10" t="n">
-        <v>2.876777462577114e-05</v>
+        <v>2.876777464623829e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-22.6831618260379</v>
+        <v>-22.68316184304658</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2987576714713084</v>
+        <v>0.2987576711106406</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-976.5908133431076</v>
+        <v>-976.5908126526714</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04421424535562058</v>
+        <v>0.04421424551990423</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>317.7078793990254</v>
+        <v>317.7078799997922</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2832668886390953</v>
+        <v>0.2832668877789256</v>
       </c>
     </row>
     <row r="14">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1120939227635945</v>
+        <v>11.20939227529651</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7959055622137524</v>
+        <v>0.7959055622326644</v>
       </c>
     </row>
     <row r="15">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0003409939817865762</v>
+        <v>-340.993980808788</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03131373230746205</v>
+        <v>0.03131373279269897</v>
       </c>
     </row>
     <row r="16">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-8.067031595502108</v>
+        <v>-8.067031595503002</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6979665608793035</v>
+        <v>0.6979665608792733</v>
       </c>
     </row>
     <row r="17">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2551.956768468329</v>
+        <v>-25.51956768468401</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4259030919911425</v>
+        <v>0.425903091991131</v>
       </c>
     </row>
     <row r="18">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1627.760278485721</v>
+        <v>-16.27760278485707</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7428609659589007</v>
+        <v>0.7428609659589021</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14976.83751007424</v>
+        <v>14976.8375104967</v>
       </c>
       <c r="C2" t="n">
-        <v>6.615937422333735e-07</v>
+        <v>6.615937417297366e-07</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2605.726866299457</v>
+        <v>-2605.726865996247</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2495253052743721</v>
+        <v>0.2495253052744221</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-853.3492153519297</v>
+        <v>-853.3492153767836</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4188489207205278</v>
+        <v>0.4188489207076126</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2655.691461464918</v>
+        <v>-2655.691461535941</v>
       </c>
       <c r="C5" t="n">
-        <v>3.305290786827475e-07</v>
+        <v>3.305290785831086e-07</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1424.47937879052</v>
+        <v>1424.479378765064</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02532702736801572</v>
+        <v>0.02532702737079199</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2432.699782590814</v>
+        <v>2432.699782416697</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007017523730439184</v>
+        <v>0.0007017523737262551</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1295.898159696663</v>
+        <v>1295.898159646535</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04848710659642237</v>
+        <v>0.04848710660574226</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>281.7987052119261</v>
+        <v>281.798705207205</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2130025984934874</v>
+        <v>0.2130025985011021</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1971.008112256972</v>
+        <v>-1971.008112258609</v>
       </c>
       <c r="C10" t="n">
-        <v>4.211763906314035e-05</v>
+        <v>4.21176390624677e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-22.04908916422491</v>
+        <v>-22.04908917359275</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3115399403915193</v>
+        <v>0.3115399401868851</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-999.2407769670076</v>
+        <v>-999.2407761506868</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04244775550434617</v>
+        <v>0.04244775569126732</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>284.7216755225961</v>
+        <v>284.721675793585</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3525649144942996</v>
+        <v>0.3525649140597912</v>
       </c>
     </row>
     <row r="14">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1167752583184635</v>
+        <v>-11.6775258348076</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7905595135774606</v>
+        <v>0.7905595135254868</v>
       </c>
     </row>
     <row r="15">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0003552803220960817</v>
+        <v>-355.2803222894728</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02879338184184035</v>
+        <v>0.02879338177745162</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-16.60359309353688</v>
+        <v>-16.60359309353718</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4466254573167053</v>
+        <v>0.4466254573166978</v>
       </c>
     </row>
     <row r="17">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2989.986111844632</v>
+        <v>-29.89986111844572</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3610734084533339</v>
+        <v>0.3610734084533453</v>
       </c>
     </row>
     <row r="18">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>705.7828752100254</v>
+        <v>7.057828752104049</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8881717470325529</v>
+        <v>0.888171747032493</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10893.35122631164</v>
+        <v>10893.35122287538</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000309295991799033</v>
+        <v>0.0003092959933007689</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3098.445454916439</v>
+        <v>-3098.445453724506</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2093227918396172</v>
+        <v>0.2093227918396204</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-340.7439425411512</v>
+        <v>-340.7439423382733</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7472350033958747</v>
+        <v>0.7472350035394415</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2273.242734405806</v>
+        <v>-2273.242734408303</v>
       </c>
       <c r="C5" t="n">
-        <v>6.134784596456407e-06</v>
+        <v>6.13478459637504e-06</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1554.369668808113</v>
+        <v>1554.369668621409</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01207489138797482</v>
+        <v>0.01207489139848994</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2910.007322052436</v>
+        <v>2910.007321992919</v>
       </c>
       <c r="C7" t="n">
-        <v>4.752747963514279e-05</v>
+        <v>4.752747965283434e-05</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1493.412774264227</v>
+        <v>1493.412774234957</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01837457926984045</v>
+        <v>0.01837457927221324</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>421.3193346629763</v>
+        <v>421.3193346483379</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05197135716313904</v>
+        <v>0.0519713571712971</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1922.485980270766</v>
+        <v>-1922.485980328051</v>
       </c>
       <c r="C10" t="n">
-        <v>3.708265375737948e-05</v>
+        <v>3.708265373834932e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-34.17991210362507</v>
+        <v>-34.17991210924529</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1083912011882663</v>
+        <v>0.1083912011304749</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-715.4778364510862</v>
+        <v>-715.4778359457368</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1348545784833498</v>
+        <v>0.1348545787757776</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>281.0845186482701</v>
+        <v>281.0845188744115</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3489783552778827</v>
+        <v>0.3489783549104916</v>
       </c>
     </row>
     <row r="14">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.009434453039951413</v>
+        <v>0.9434453055587984</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9825091591885106</v>
+        <v>0.982509159159533</v>
       </c>
     </row>
     <row r="15">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0002852582061640981</v>
+        <v>-285.2582061256413</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07120189572057294</v>
+        <v>0.07120189577100539</v>
       </c>
     </row>
     <row r="16">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.438379586385458</v>
+        <v>4.438379586385378</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8329554373938974</v>
+        <v>0.8329554373939008</v>
       </c>
     </row>
     <row r="17">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2463.823365449985</v>
+        <v>-24.63823365449955</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4292702114347393</v>
+        <v>0.4292702114347452</v>
       </c>
     </row>
     <row r="18">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-317.9231569073042</v>
+        <v>-3.179231569071566</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9485985987594578</v>
+        <v>0.9485985987594816</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15423.96536704926</v>
+        <v>15423.96536649811</v>
       </c>
       <c r="C2" t="n">
-        <v>2.590158634078859e-07</v>
+        <v>2.590158637039436e-07</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1753.000158563128</v>
+        <v>-1753.000158522826</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4658674592570707</v>
+        <v>0.4658674592570939</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1140.252313526791</v>
+        <v>-1140.252313414332</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2571781795973725</v>
+        <v>0.2571781796398637</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2541.172417547295</v>
+        <v>-2541.172417346413</v>
       </c>
       <c r="C5" t="n">
-        <v>9.885645984035842e-07</v>
+        <v>9.885645987442009e-07</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1252.255251208149</v>
+        <v>1252.255251301044</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04776447666196571</v>
+        <v>0.04776447664465366</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1957.42774960212</v>
+        <v>1957.42774964974</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005593434910263418</v>
+        <v>0.0055934349090131</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1396.950098104275</v>
+        <v>1396.950098107549</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03064859652674013</v>
+        <v>0.03064859652631997</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>266.3426034431837</v>
+        <v>266.3426034160296</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2317920863166696</v>
+        <v>0.231792086362468</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1694.885950754962</v>
+        <v>-1694.885950722865</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003533877288006479</v>
+        <v>0.0003533877289129404</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-31.37854192744653</v>
+        <v>-31.37854192895347</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1484409440003642</v>
+        <v>0.1484409439813166</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1008.293457577871</v>
+        <v>-1008.293457606083</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03489553881302721</v>
+        <v>0.03489553880727259</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.2321841579157</v>
+        <v>41.23218425515415</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8907695712635875</v>
+        <v>0.8907695710102392</v>
       </c>
     </row>
     <row r="14">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.005132992987776031</v>
+        <v>0.5132993010336833</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9905314497069981</v>
+        <v>0.9905314496653868</v>
       </c>
     </row>
     <row r="15">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0004597037132878762</v>
+        <v>-459.7037137764318</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003983378520081143</v>
+        <v>0.003983378473784192</v>
       </c>
     </row>
     <row r="16">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-5.7631500173079</v>
+        <v>-5.763150017308851</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7867689475619357</v>
+        <v>0.7867689475619023</v>
       </c>
     </row>
     <row r="17">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4309.574547999704</v>
+        <v>-43.09574547999723</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1752847697402421</v>
+        <v>0.1752847697402408</v>
       </c>
     </row>
     <row r="18">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-813.4395536251159</v>
+        <v>-8.134395536249698</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8687268035989492</v>
+        <v>0.8687268035989725</v>
       </c>
     </row>
   </sheetData>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14111.3038670852</v>
+        <v>14111.30386849725</v>
       </c>
       <c r="C2" t="n">
-        <v>3.751378562764313e-06</v>
+        <v>3.751378553715569e-06</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2579.388095966865</v>
+        <v>-2579.388096663402</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2395766309204399</v>
+        <v>0.239576630920477</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1261.774532293698</v>
+        <v>-1261.774532301282</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2324271725811793</v>
+        <v>0.2324271725785644</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2667.579963902154</v>
+        <v>-2667.579964070457</v>
       </c>
       <c r="C5" t="n">
-        <v>3.368869498332134e-07</v>
+        <v>3.368869496025306e-07</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>864.8295849284771</v>
+        <v>864.8295850801132</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1740590404254532</v>
+        <v>0.1740590403475416</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2399.590944456356</v>
+        <v>2399.59094470485</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001080598695118966</v>
+        <v>0.001080598693718768</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1183.911987424579</v>
+        <v>1183.911987474622</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06983382910810321</v>
+        <v>0.06983382909576348</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>147.4645250410674</v>
+        <v>147.4645249946579</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5221253922261812</v>
+        <v>0.5221253923554829</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2111.347569613891</v>
+        <v>-2111.347569610866</v>
       </c>
       <c r="C10" t="n">
-        <v>1.160242316602651e-05</v>
+        <v>1.160242316638618e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-28.85511345672019</v>
+        <v>-28.85511345182126</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1949007332245671</v>
+        <v>0.1949007332998152</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1086.891486981111</v>
+        <v>-1086.891486523836</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0266495276262307</v>
+        <v>0.02664952769675974</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>168.2000707119634</v>
+        <v>168.2000705409912</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5824571328100148</v>
+        <v>0.5824571331829784</v>
       </c>
     </row>
     <row r="14">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04514134702580061</v>
+        <v>4.514134712441741</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9174020581904723</v>
+        <v>0.9174020580107112</v>
       </c>
     </row>
     <row r="15">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0004770178407132156</v>
+        <v>-477.0178410100237</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003719745742290953</v>
+        <v>0.0037197457190444</v>
       </c>
     </row>
     <row r="16">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.389479046087577</v>
+        <v>7.389479046086803</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7314686916949811</v>
+        <v>0.7314686916950084</v>
       </c>
     </row>
     <row r="17">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4104.642532993283</v>
+        <v>-41.0464253299324</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2031107774261028</v>
+        <v>0.2031107774261078</v>
       </c>
     </row>
     <row r="18">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1912.385291865904</v>
+        <v>-19.12385291865691</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6991397039294782</v>
+        <v>0.6991397039295092</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13517.36166147364</v>
+        <v>13517.36166236897</v>
       </c>
       <c r="C2" t="n">
-        <v>5.523208289470193e-06</v>
+        <v>5.523208280218661e-06</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3096.151758296053</v>
+        <v>-3096.151758644485</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2142157725629014</v>
+        <v>0.2142157725628736</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-312.0746368783408</v>
+        <v>-312.0746366300815</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7633150581707417</v>
+        <v>0.7633150583509607</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2221.542060275992</v>
+        <v>-2221.542059904697</v>
       </c>
       <c r="C5" t="n">
-        <v>1.46505501053629e-05</v>
+        <v>1.465055013373846e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>879.4380449934231</v>
+        <v>879.4380452828259</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1556353731069618</v>
+        <v>0.1556353729653076</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2218.978980222984</v>
+        <v>2218.978980372658</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001750766593901704</v>
+        <v>0.001750766592598681</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1177.335538153538</v>
+        <v>1177.335538137939</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06631299299874444</v>
+        <v>0.06631299300240578</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>241.2454417589646</v>
+        <v>241.2454418299423</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2810001123072691</v>
+        <v>0.2810001121730136</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1685.017402070974</v>
+        <v>-1685.017402105229</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000346318647488339</v>
+        <v>0.0003463186473848149</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.63849030035711</v>
+        <v>-37.63849030935057</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08204987637380086</v>
+        <v>0.08204987630040182</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1201.644708004167</v>
+        <v>-1201.644708426037</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01297501934109915</v>
+        <v>0.01297501930594819</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>310.0531982375533</v>
+        <v>310.0531987356328</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3041993420639777</v>
+        <v>0.3041993413172921</v>
       </c>
     </row>
     <row r="14">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04337936961336132</v>
+        <v>4.337936963754904</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9187494488778994</v>
+        <v>0.9187494488328034</v>
       </c>
     </row>
     <row r="15">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0003790547206860213</v>
+        <v>-379.0547208308394</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01867357732817298</v>
+        <v>0.01867357726934849</v>
       </c>
     </row>
     <row r="16">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.288672636395541</v>
+        <v>2.288672636394981</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9141174954471885</v>
+        <v>0.9141174954472098</v>
       </c>
     </row>
     <row r="17">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4697.724256474534</v>
+        <v>-46.97724256474529</v>
       </c>
       <c r="C17" t="n">
-        <v>0.136841422203925</v>
+        <v>0.1368414222039255</v>
       </c>
     </row>
     <row r="18">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-461.8416160506374</v>
+        <v>-4.618416160506083</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9244866629561356</v>
+        <v>0.9244866629561403</v>
       </c>
     </row>
   </sheetData>
